--- a/SP_2018_03_06_CarToCarCommunication.xlsx
+++ b/SP_2018_03_06_CarToCarCommunication.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wilkommen\Desktop\SPROJECT\Planning1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asif Wasefi\Google Drive\School\UA_Elektronica_ICT\4deSemester\Scientific_Project\Planning1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72E4EB3-8C0E-4AD7-B454-2D91C3B43B92}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -22,12 +21,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>willy loockx</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="C7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="E7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="C16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -96,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="D17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -110,7 +109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="D18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -124,7 +123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="D19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -143,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="105">
   <si>
     <t>startdatum</t>
   </si>
@@ -300,9 +299,6 @@
     <t>Asif Wasefi</t>
   </si>
   <si>
-    <t>U</t>
-  </si>
-  <si>
     <t>Documentation analysis</t>
   </si>
   <si>
@@ -466,12 +462,39 @@
   </si>
   <si>
     <t>Daniel, Satish</t>
+  </si>
+  <si>
+    <t>3_Satish_RCCarVsOtherCars</t>
+  </si>
+  <si>
+    <t>3_Daniel_different_comm_protocols</t>
+  </si>
+  <si>
+    <t>3_Asif_Server_OS_comparison</t>
+  </si>
+  <si>
+    <t>3_Gauthier_Different-Microcontrollers</t>
+  </si>
+  <si>
+    <t>3_Ali_NodeMCU-programming</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>Week2 (07/03/2018)</t>
+  </si>
+  <si>
+    <t>Report2</t>
+  </si>
+  <si>
+    <t>Week3 (14/03/2018)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -716,7 +739,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -748,9 +771,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -835,14 +855,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -962,23 +975,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1014,23 +1010,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1206,16 +1185,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.140625" style="26"/>
+    <col min="2" max="2" width="9.140625" style="25"/>
     <col min="3" max="3" width="27.42578125" customWidth="1"/>
     <col min="4" max="4" width="33.5703125" customWidth="1"/>
     <col min="5" max="5" width="8.28515625" customWidth="1"/>
@@ -1226,7 +1205,7 @@
     <col min="10" max="10" width="13" customWidth="1"/>
     <col min="11" max="11" width="22.28515625" customWidth="1"/>
     <col min="12" max="12" width="4.140625" customWidth="1"/>
-    <col min="13" max="13" width="21.42578125" customWidth="1"/>
+    <col min="13" max="13" width="37.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20.7109375" customWidth="1"/>
     <col min="15" max="15" width="18.140625" customWidth="1"/>
     <col min="16" max="16" width="34.7109375" customWidth="1"/>
@@ -1234,23 +1213,23 @@
   <sheetData>
     <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:16" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="32"/>
-      <c r="C2" s="51" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="33"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="32"/>
     </row>
     <row r="3" spans="2:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="10"/>
@@ -1268,82 +1247,82 @@
       <c r="O3" s="10"/>
     </row>
     <row r="4" spans="2:16" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="27"/>
-      <c r="C4" s="57" t="s">
+      <c r="B4" s="26"/>
+      <c r="C4" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="57"/>
+      <c r="D4" s="53"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="56" t="s">
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="55" t="s">
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="21" t="s">
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="20" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="28"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="35"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="34"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
       <c r="P5" s="7"/>
     </row>
     <row r="6" spans="2:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="52" t="s">
+      <c r="F6" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="53" t="s">
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="54" t="s">
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="29"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="28"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="40" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="8" t="s">
@@ -1364,10 +1343,10 @@
       <c r="J7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="24" t="s">
+      <c r="K7" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="L7" s="24"/>
+      <c r="L7" s="23"/>
       <c r="M7" s="9" t="s">
         <v>21</v>
       </c>
@@ -1377,15 +1356,15 @@
       <c r="O7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="P7" s="31"/>
+      <c r="P7" s="30"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
@@ -1395,181 +1374,181 @@
       <c r="O8" s="12"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="26">
+      <c r="B9" s="25">
         <v>10</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="26">
+      <c r="B10" s="25">
         <v>11</v>
       </c>
       <c r="D10" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="15">
         <v>43333</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="15">
         <v>43159</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="45">
+      <c r="I10" s="44">
         <v>43333</v>
       </c>
-      <c r="J10" s="45">
+      <c r="J10" s="44">
         <v>43159</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M10" s="47" t="s">
-        <v>82</v>
+      <c r="M10" s="45" t="s">
+        <v>81</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="26">
+      <c r="B11" s="25">
         <v>12</v>
       </c>
       <c r="D11" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="15">
         <v>43333</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="15">
         <v>43159</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="45">
+      <c r="I11" s="44">
         <v>43333</v>
       </c>
-      <c r="J11" s="45">
+      <c r="J11" s="44">
         <v>43159</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M11" s="47" t="s">
-        <v>83</v>
+      <c r="M11" s="45" t="s">
+        <v>82</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="26">
+      <c r="B12" s="25">
         <v>13</v>
       </c>
       <c r="D12" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="15">
         <v>43333</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="15">
         <v>43159</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="45">
+      <c r="I12" s="44">
         <v>43333</v>
       </c>
-      <c r="J12" s="45">
+      <c r="J12" s="44">
         <v>43159</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M12" s="47" t="s">
-        <v>84</v>
+      <c r="M12" s="45" t="s">
+        <v>83</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="26">
+      <c r="B13" s="25">
         <v>13</v>
       </c>
       <c r="D13" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="15">
         <v>43333</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="15">
         <v>43159</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="45">
+      <c r="I13" s="44">
         <v>43333</v>
       </c>
-      <c r="J13" s="45">
+      <c r="J13" s="44">
         <v>43159</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M13" s="47" t="s">
-        <v>85</v>
+      <c r="M13" s="45" t="s">
+        <v>84</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="26">
+      <c r="B14" s="25">
         <v>14</v>
       </c>
       <c r="D14" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="15">
         <v>43333</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="15">
         <v>43159</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="45">
+      <c r="I14" s="44">
         <v>43333</v>
       </c>
-      <c r="J14" s="45">
+      <c r="J14" s="44">
         <v>43159</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="1" t="s">
         <v>40</v>
       </c>
       <c r="M14" s="2"/>
@@ -1577,559 +1556,625 @@
       <c r="O14" s="2"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="42"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D16" s="23"/>
+      <c r="B16" s="25">
+        <v>20</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="21"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="43"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="26">
-        <v>20</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="25">
+        <v>21</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="15">
+        <v>43159</v>
+      </c>
+      <c r="G17" s="15">
+        <v>43166</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="43">
+        <v>43159</v>
+      </c>
+      <c r="J17" s="43">
+        <v>43166</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L17" s="24"/>
+      <c r="M17" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="N17" s="37"/>
+      <c r="O17" s="39"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="25">
+        <v>22</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="15">
+        <v>43159</v>
+      </c>
+      <c r="G18" s="15">
+        <v>43166</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="43">
+        <v>43159</v>
+      </c>
+      <c r="J18" s="43">
+        <v>43166</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="24"/>
+      <c r="M18" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="N18" s="38"/>
+      <c r="O18" s="39"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="25">
         <v>23</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="26">
-        <v>21</v>
-      </c>
-      <c r="D18" s="23" t="s">
+      <c r="D19" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="15">
+        <v>43159</v>
+      </c>
+      <c r="G19" s="15">
+        <v>43166</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="43">
+        <v>43159</v>
+      </c>
+      <c r="J19" s="43">
+        <v>43166</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="24"/>
+      <c r="M19" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="N19" s="38"/>
+      <c r="O19" s="39"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="25">
+        <v>24</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="15">
+        <v>43159</v>
+      </c>
+      <c r="G20" s="15">
+        <v>43166</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="43">
+        <v>43159</v>
+      </c>
+      <c r="J20" s="43">
+        <v>43166</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L20" s="24"/>
+      <c r="M20" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="N20" s="38"/>
+      <c r="O20" s="39"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="25">
+        <v>25</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="15">
+        <v>43159</v>
+      </c>
+      <c r="G21" s="15">
+        <v>43166</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" s="43">
+        <v>43159</v>
+      </c>
+      <c r="J21" s="43">
+        <v>43166</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L21" s="24"/>
+      <c r="M21" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="N21" s="38"/>
+      <c r="O21" s="39"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D22" s="22"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="39"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="25">
+        <v>26</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="K23" s="1"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="25">
         <v>27</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="D24" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="16">
-        <v>43159</v>
-      </c>
-      <c r="G18" s="16">
+      <c r="F24" s="15">
         <v>43166</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="G24" s="15">
+        <v>43173</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" s="44">
+        <v>43166</v>
+      </c>
+      <c r="J24" s="44">
+        <v>43173</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I18" s="44">
-        <v>43159</v>
-      </c>
-      <c r="J18" s="44">
-        <v>43166</v>
-      </c>
-      <c r="K18" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="L18" s="25"/>
-      <c r="M18" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="N18" s="38"/>
-      <c r="O18" s="40"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="26">
-        <v>22</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="16">
-        <v>43159</v>
-      </c>
-      <c r="G19" s="16">
-        <v>43166</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I19" s="44">
-        <v>43159</v>
-      </c>
-      <c r="J19" s="44">
-        <v>43166</v>
-      </c>
-      <c r="K19" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="L19" s="25"/>
-      <c r="M19" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="N19" s="39"/>
-      <c r="O19" s="40"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="26">
-        <v>23</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="16">
-        <v>43159</v>
-      </c>
-      <c r="G20" s="16">
-        <v>43166</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="I20" s="44">
-        <v>43159</v>
-      </c>
-      <c r="J20" s="44">
-        <v>43166</v>
-      </c>
-      <c r="K20" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="L20" s="25"/>
-      <c r="M20" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="N20" s="39"/>
-      <c r="O20" s="40"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="26">
-        <v>24</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="16">
-        <v>43159</v>
-      </c>
-      <c r="G21" s="16">
-        <v>43166</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="I21" s="44">
-        <v>43159</v>
-      </c>
-      <c r="J21" s="44">
-        <v>43166</v>
-      </c>
-      <c r="K21" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="L21" s="25"/>
-      <c r="M21" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="N21" s="39"/>
-      <c r="O21" s="40"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="26">
-        <v>25</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="16">
-        <v>43159</v>
-      </c>
-      <c r="G22" s="16">
-        <v>43166</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="I22" s="44">
-        <v>43159</v>
-      </c>
-      <c r="J22" s="44">
-        <v>43166</v>
-      </c>
-      <c r="K22" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="L22" s="25"/>
-      <c r="M22" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="N22" s="39"/>
-      <c r="O22" s="40"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D23" s="23"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="40"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="26">
-        <v>26</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="14"/>
-      <c r="M24" s="2"/>
+      <c r="M24" s="45" t="s">
+        <v>97</v>
+      </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="26">
-        <v>27</v>
-      </c>
-      <c r="D25" s="23" t="s">
+      <c r="B25" s="25">
+        <v>28</v>
+      </c>
+      <c r="D25" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="46">
+      <c r="E25" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="15">
         <v>43166</v>
       </c>
-      <c r="G25" s="46">
+      <c r="G25" s="15">
         <v>43173</v>
       </c>
-      <c r="H25" s="14" t="s">
+      <c r="H25" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="M25" s="2"/>
+      <c r="I25" s="44">
+        <v>43166</v>
+      </c>
+      <c r="J25" s="44">
+        <v>43173</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M25" s="45" t="s">
+        <v>100</v>
+      </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="26">
-        <v>28</v>
-      </c>
-      <c r="D26" s="23" t="s">
+      <c r="B26" s="25">
+        <v>29</v>
+      </c>
+      <c r="D26" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="46">
+      <c r="E26" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="15">
         <v>43166</v>
       </c>
-      <c r="G26" s="46">
+      <c r="G26" s="15">
         <v>43173</v>
       </c>
-      <c r="H26" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="M26" s="2"/>
+      <c r="H26" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" s="44">
+        <v>43166</v>
+      </c>
+      <c r="J26" s="44">
+        <v>43173</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M26" s="45" t="s">
+        <v>96</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="26">
-        <v>29</v>
-      </c>
-      <c r="D27" s="23" t="s">
+      <c r="B27" s="25">
+        <v>30</v>
+      </c>
+      <c r="D27" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="46">
+      <c r="E27" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="15">
         <v>43166</v>
       </c>
-      <c r="G27" s="46">
+      <c r="G27" s="15">
         <v>43173</v>
       </c>
-      <c r="H27" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="M27" s="2"/>
+      <c r="H27" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I27" s="44">
+        <v>43166</v>
+      </c>
+      <c r="J27" s="44">
+        <v>43173</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M27" s="45" t="s">
+        <v>98</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="26">
+      <c r="B28" s="25">
+        <v>31</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="15">
+        <v>43166</v>
+      </c>
+      <c r="G28" s="15">
+        <v>43173</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I28" s="44">
+        <v>43166</v>
+      </c>
+      <c r="J28" s="44">
+        <v>43173</v>
+      </c>
+      <c r="K28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="46">
-        <v>43166</v>
-      </c>
-      <c r="G28" s="46">
-        <v>43173</v>
-      </c>
-      <c r="H28" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="26">
-        <v>31</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="46">
-        <v>43166</v>
-      </c>
-      <c r="G29" s="46">
-        <v>43173</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>39</v>
-      </c>
+      <c r="D29" s="21"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D30" s="22"/>
+      <c r="B30" s="25">
+        <v>32</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="21"/>
       <c r="E30" s="5"/>
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="26">
-        <v>32</v>
-      </c>
-      <c r="C31" s="3" t="s">
+      <c r="B31" s="25">
+        <v>33</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="15">
+        <v>43173</v>
+      </c>
+      <c r="G31" s="15">
+        <v>43180</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="42"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="25">
+        <v>34</v>
+      </c>
+      <c r="D32" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="43"/>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="26">
-        <v>33</v>
-      </c>
-      <c r="D32" s="23" t="s">
+      <c r="E32" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="15">
+        <v>43173</v>
+      </c>
+      <c r="G32" s="15">
+        <v>43180</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="I32" s="43"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="42"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" s="25">
+        <v>35</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="15">
+        <v>43173</v>
+      </c>
+      <c r="G33" s="15">
+        <v>43180</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="I33" s="43"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D34" s="22"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35" s="25">
+        <v>36</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E32" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F32" s="16">
-        <v>43173</v>
-      </c>
-      <c r="G32" s="16">
+      <c r="D35" s="21"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B36" s="25">
+        <v>37</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="17"/>
+      <c r="F36" s="15">
         <v>43180</v>
       </c>
-      <c r="H32" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="43"/>
-      <c r="O32" s="43"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="26">
-        <v>34</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F33" s="16">
-        <v>43173</v>
-      </c>
-      <c r="G33" s="16">
-        <v>43180</v>
-      </c>
-      <c r="H33" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="I33" s="44"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="42"/>
-      <c r="N33" s="43"/>
-      <c r="O33" s="43"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="26">
-        <v>35</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F34" s="16">
-        <v>43173</v>
-      </c>
-      <c r="G34" s="16">
-        <v>43180</v>
-      </c>
-      <c r="H34" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="I34" s="44"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D35" s="23"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="15"/>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="26">
-        <v>36</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
+      <c r="G36" s="15">
+        <v>43187</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="15"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="26">
-        <v>37</v>
-      </c>
-      <c r="D37" s="23" t="s">
+      <c r="B37" s="25">
+        <v>38</v>
+      </c>
+      <c r="D37" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="E37" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F37" s="16">
+      <c r="E37" s="17"/>
+      <c r="F37" s="15">
         <v>43180</v>
       </c>
-      <c r="G37" s="16">
+      <c r="G37" s="15">
         <v>43187</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="15"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B38" s="26">
-        <v>38</v>
-      </c>
-      <c r="D38" s="23" t="s">
+      <c r="B38" s="25">
+        <v>39</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E38" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F38" s="16">
+      <c r="E38" s="17"/>
+      <c r="F38" s="15">
         <v>43180</v>
       </c>
-      <c r="G38" s="16">
+      <c r="G38" s="15">
         <v>43187</v>
       </c>
       <c r="H38" s="15" t="s">
@@ -2139,67 +2184,57 @@
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="26">
-        <v>39</v>
-      </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E39" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F39" s="16">
+      <c r="B39" s="25">
+        <v>40</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" s="17"/>
+      <c r="F39" s="15">
         <v>43180</v>
       </c>
-      <c r="G39" s="16">
+      <c r="G39" s="15">
         <v>43187</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B40" s="26">
-        <v>40</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E40" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F40" s="16">
-        <v>43180</v>
-      </c>
-      <c r="G40" s="16">
-        <v>43187</v>
-      </c>
-      <c r="H40" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="D40" s="21"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="15"/>
-      <c r="O40" s="15"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D41" s="22"/>
+      <c r="B41" s="25">
+        <v>41</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="21"/>
       <c r="E41" s="5"/>
       <c r="F41" s="15"/>
       <c r="G41" s="15"/>
@@ -2208,564 +2243,569 @@
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
-      <c r="M41" s="15"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="15"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B42" s="26">
-        <v>41</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D42" s="22"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="15"/>
+      <c r="B42" s="25">
+        <v>42</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" s="17"/>
+      <c r="F42" s="15">
+        <v>43187</v>
+      </c>
+      <c r="G42" s="15">
+        <v>43194</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B43" s="26">
-        <v>42</v>
-      </c>
-      <c r="D43" s="23" t="s">
+      <c r="B43" s="25">
+        <v>43</v>
+      </c>
+      <c r="D43" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="E43" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F43" s="46">
+      <c r="E43" s="17"/>
+      <c r="F43" s="15">
         <v>43187</v>
       </c>
-      <c r="G43" s="46">
+      <c r="G43" s="15">
         <v>43194</v>
       </c>
       <c r="H43" s="15" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B44" s="26">
-        <v>43</v>
-      </c>
-      <c r="D44" s="23" t="s">
+      <c r="B44" s="25">
+        <v>44</v>
+      </c>
+      <c r="D44" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E44" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F44" s="46">
+      <c r="E44" s="17"/>
+      <c r="F44" s="15">
         <v>43187</v>
       </c>
-      <c r="G44" s="46">
+      <c r="G44" s="15">
         <v>43194</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B45" s="26">
-        <v>44</v>
-      </c>
-      <c r="D45" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E45" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F45" s="46">
-        <v>43187</v>
-      </c>
-      <c r="G45" s="46">
-        <v>43194</v>
-      </c>
-      <c r="H45" s="15" t="s">
-        <v>95</v>
-      </c>
+      <c r="E45" s="5"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D46" s="22"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="46"/>
+      <c r="B46" s="25">
+        <v>46</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
       <c r="H46" s="15"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="E47" s="5"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="14"/>
+      <c r="B47" s="25">
+        <v>47</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47" s="17"/>
+      <c r="F47" s="15">
+        <v>43194</v>
+      </c>
+      <c r="G47" s="15">
+        <v>43201</v>
+      </c>
+      <c r="H47" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B48" s="26">
-        <v>46</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E48" s="5"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="14"/>
+      <c r="B48" s="25">
+        <v>48</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48" s="17"/>
+      <c r="F48" s="15">
+        <v>43194</v>
+      </c>
+      <c r="G48" s="15">
+        <v>43201</v>
+      </c>
+      <c r="H48" s="15" t="s">
+        <v>92</v>
+      </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B49" s="26">
-        <v>47</v>
-      </c>
-      <c r="D49" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="E49" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F49" s="46">
+      <c r="B49" s="25">
+        <v>49</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E49" s="17"/>
+      <c r="F49" s="15">
         <v>43194</v>
       </c>
-      <c r="G49" s="46">
+      <c r="G49" s="15">
         <v>43201</v>
       </c>
       <c r="H49" s="15" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B50" s="26">
-        <v>48</v>
-      </c>
-      <c r="D50" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E50" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F50" s="46">
-        <v>43194</v>
-      </c>
-      <c r="G50" s="46">
-        <v>43201</v>
-      </c>
-      <c r="H50" s="15" t="s">
-        <v>93</v>
-      </c>
+      <c r="D50" s="21"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B51" s="26">
-        <v>49</v>
-      </c>
-      <c r="D51" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E51" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F51" s="46">
-        <v>43194</v>
-      </c>
-      <c r="G51" s="46">
-        <v>43201</v>
-      </c>
-      <c r="H51" s="15" t="s">
-        <v>96</v>
-      </c>
+      <c r="B51" s="25">
+        <v>50</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D52" s="22"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="46"/>
-      <c r="G52" s="46"/>
-      <c r="H52" s="15"/>
+      <c r="B52" s="25">
+        <v>51</v>
+      </c>
+      <c r="D52" t="s">
+        <v>62</v>
+      </c>
+      <c r="E52" s="17"/>
+      <c r="F52" s="15">
+        <v>43201</v>
+      </c>
+      <c r="G52" s="15">
+        <v>43208</v>
+      </c>
+      <c r="H52" s="15" t="s">
+        <v>63</v>
+      </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B53" s="26">
-        <v>50</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="14"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B54" s="26">
-        <v>51</v>
-      </c>
-      <c r="D54" t="s">
-        <v>63</v>
-      </c>
-      <c r="E54" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F54" s="46">
-        <v>43201</v>
-      </c>
-      <c r="G54" s="46">
-        <v>43208</v>
-      </c>
-      <c r="H54" s="14" t="s">
+      <c r="B54" s="25">
+        <v>52</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>64</v>
       </c>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="14"/>
+      <c r="B55" s="25">
+        <v>53</v>
+      </c>
+      <c r="D55" t="s">
+        <v>65</v>
+      </c>
+      <c r="E55" s="17"/>
+      <c r="F55" s="15">
+        <v>43208</v>
+      </c>
+      <c r="G55" s="15">
+        <v>43215</v>
+      </c>
+      <c r="H55" s="15"/>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B56" s="26">
-        <v>52</v>
-      </c>
-      <c r="C56" s="3" t="s">
+      <c r="B56" s="25">
+        <v>54</v>
+      </c>
+      <c r="D56" t="s">
         <v>65</v>
       </c>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="14"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="15">
+        <v>43208</v>
+      </c>
+      <c r="G56" s="15">
+        <v>43215</v>
+      </c>
+      <c r="H56" s="15"/>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B57" s="26">
-        <v>53</v>
+      <c r="B57" s="25">
+        <v>55</v>
       </c>
       <c r="D57" t="s">
-        <v>66</v>
-      </c>
-      <c r="F57" s="46">
+        <v>65</v>
+      </c>
+      <c r="E57" s="17"/>
+      <c r="F57" s="15">
         <v>43208</v>
       </c>
-      <c r="G57" s="46">
+      <c r="G57" s="15">
         <v>43215</v>
       </c>
-      <c r="H57" s="14"/>
+      <c r="H57" s="15"/>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B58" s="26">
-        <v>54</v>
+      <c r="B58" s="25">
+        <v>56</v>
       </c>
       <c r="D58" t="s">
-        <v>66</v>
-      </c>
-      <c r="F58" s="46">
+        <v>65</v>
+      </c>
+      <c r="E58" s="17"/>
+      <c r="F58" s="15">
         <v>43208</v>
       </c>
-      <c r="G58" s="46">
+      <c r="G58" s="15">
         <v>43215</v>
       </c>
-      <c r="H58" s="14"/>
+      <c r="H58" s="15"/>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B59" s="26">
-        <v>55</v>
-      </c>
-      <c r="D59" t="s">
-        <v>66</v>
-      </c>
-      <c r="F59" s="46">
-        <v>43208</v>
-      </c>
-      <c r="G59" s="46">
-        <v>43215</v>
-      </c>
-      <c r="H59" s="14"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B60" s="26">
-        <v>56</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="B60" s="25">
+        <v>57</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F60" s="46">
-        <v>43208</v>
-      </c>
-      <c r="G60" s="46">
-        <v>43215</v>
-      </c>
-      <c r="H60" s="14"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="14"/>
+      <c r="B61" s="25">
+        <v>58</v>
+      </c>
+      <c r="D61" t="s">
+        <v>67</v>
+      </c>
+      <c r="E61" s="17"/>
+      <c r="F61" s="15">
+        <v>43215</v>
+      </c>
+      <c r="G61" s="15">
+        <v>43222</v>
+      </c>
+      <c r="H61" s="15" t="s">
+        <v>72</v>
+      </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B62" s="26">
-        <v>57</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="14"/>
+      <c r="B62" s="25">
+        <v>59</v>
+      </c>
+      <c r="D62" t="s">
+        <v>68</v>
+      </c>
+      <c r="E62" s="17"/>
+      <c r="F62" s="15">
+        <v>43215</v>
+      </c>
+      <c r="G62" s="15">
+        <v>43222</v>
+      </c>
+      <c r="H62" s="15" t="s">
+        <v>71</v>
+      </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B63" s="26">
-        <v>58</v>
+      <c r="B63" s="25">
+        <v>60</v>
       </c>
       <c r="D63" t="s">
-        <v>68</v>
-      </c>
-      <c r="E63" t="s">
-        <v>41</v>
-      </c>
-      <c r="F63" s="46">
+        <v>69</v>
+      </c>
+      <c r="E63" s="17"/>
+      <c r="F63" s="15">
         <v>43215</v>
       </c>
-      <c r="G63" s="46">
+      <c r="G63" s="15">
         <v>43222</v>
       </c>
-      <c r="H63" s="14" t="s">
-        <v>73</v>
+      <c r="H63" s="15" t="s">
+        <v>70</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B64" s="26">
-        <v>59</v>
-      </c>
-      <c r="D64" t="s">
-        <v>69</v>
-      </c>
-      <c r="E64" t="s">
-        <v>41</v>
-      </c>
-      <c r="F64" s="46">
-        <v>43215</v>
-      </c>
-      <c r="G64" s="46">
-        <v>43222</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="26">
-        <v>60</v>
-      </c>
-      <c r="D65" t="s">
-        <v>70</v>
-      </c>
-      <c r="E65" t="s">
-        <v>41</v>
-      </c>
-      <c r="F65" s="46">
-        <v>43215</v>
-      </c>
-      <c r="G65" s="46">
+    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B65" s="25">
+        <v>61</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B66" s="25">
+        <v>62</v>
+      </c>
+      <c r="D66" t="s">
+        <v>74</v>
+      </c>
+      <c r="E66" s="17"/>
+      <c r="F66" s="15">
         <v>43222</v>
       </c>
-      <c r="H65" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F66" s="46"/>
-      <c r="G66" s="46"/>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="26">
-        <v>61</v>
-      </c>
-      <c r="C67" s="3" t="s">
+      <c r="G66" s="15">
+        <v>43229</v>
+      </c>
+      <c r="H66" s="15"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B67" s="25">
+        <v>63</v>
+      </c>
+      <c r="D67" t="s">
+        <v>75</v>
+      </c>
+      <c r="E67" s="17"/>
+      <c r="F67" s="15">
+        <v>43222</v>
+      </c>
+      <c r="G67" s="15">
+        <v>43229</v>
+      </c>
+      <c r="H67" s="15"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B68" s="25">
+        <v>64</v>
+      </c>
+      <c r="D68" t="s">
+        <v>76</v>
+      </c>
+      <c r="E68" s="17"/>
+      <c r="F68" s="15">
+        <v>43222</v>
+      </c>
+      <c r="G68" s="15">
+        <v>43229</v>
+      </c>
+      <c r="H68" s="15"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B70" s="25">
+        <v>65</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B71" s="25">
+        <v>66</v>
+      </c>
+      <c r="D71" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="26">
-        <v>62</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="E71" s="17"/>
+      <c r="F71" s="15">
+        <v>43229</v>
+      </c>
+      <c r="G71" s="15">
+        <v>43236</v>
+      </c>
+      <c r="H71" s="15"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B72" s="25">
+        <v>67</v>
+      </c>
+      <c r="D72" t="s">
         <v>75</v>
       </c>
-      <c r="E68" t="s">
-        <v>41</v>
-      </c>
-      <c r="F68" s="46">
-        <v>43222</v>
-      </c>
-      <c r="G68" s="45">
+      <c r="E72" s="17"/>
+      <c r="F72" s="15">
         <v>43229</v>
       </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="26">
-        <v>63</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="G72" s="15">
+        <v>43236</v>
+      </c>
+      <c r="H72" s="15"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B73" s="25">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
         <v>76</v>
       </c>
-      <c r="E69" t="s">
-        <v>41</v>
-      </c>
-      <c r="F69" s="46">
-        <v>43222</v>
-      </c>
-      <c r="G69" s="45">
+      <c r="E73" s="17"/>
+      <c r="F73" s="15">
         <v>43229</v>
       </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B70" s="26">
-        <v>64</v>
-      </c>
-      <c r="D70" t="s">
-        <v>77</v>
-      </c>
-      <c r="E70" t="s">
-        <v>41</v>
-      </c>
-      <c r="F70" s="46">
-        <v>43222</v>
-      </c>
-      <c r="G70" s="45">
-        <v>43229</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B72" s="26">
-        <v>65</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="26">
-        <v>66</v>
-      </c>
-      <c r="D73" t="s">
-        <v>75</v>
-      </c>
-      <c r="E73" t="s">
-        <v>41</v>
-      </c>
-      <c r="F73" s="45">
-        <v>43229</v>
-      </c>
-      <c r="G73" s="45">
+      <c r="G73" s="15">
         <v>43236</v>
       </c>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="26">
-        <v>67</v>
-      </c>
-      <c r="D74" t="s">
-        <v>76</v>
-      </c>
-      <c r="E74" t="s">
-        <v>41</v>
-      </c>
-      <c r="F74" s="45">
-        <v>43229</v>
-      </c>
-      <c r="G74" s="45">
-        <v>43236</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="26">
-        <v>68</v>
-      </c>
-      <c r="D75" t="s">
-        <v>77</v>
-      </c>
-      <c r="E75" t="s">
-        <v>41</v>
-      </c>
-      <c r="F75" s="45">
-        <v>43229</v>
-      </c>
-      <c r="G75" s="45">
-        <v>43236</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C78" s="3" t="s">
+      <c r="H73" s="15"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C76" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D77" s="46" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>102</v>
+      </c>
+      <c r="D78" s="46" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
-        <v>89</v>
-      </c>
-      <c r="D79" s="50" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2781,25 +2821,31 @@
     <mergeCell ref="B6:D6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="M10" r:id="rId1" display="1-Gauthier" xr:uid="{E637DA33-3D1A-4172-A63F-52B2FBF4247E}"/>
-    <hyperlink ref="M11" r:id="rId2" display="1-Satish" xr:uid="{43B7EB73-21A5-4D1C-B253-AFC0705C059E}"/>
-    <hyperlink ref="M12" r:id="rId3" display="1-Ali" xr:uid="{09E55B70-4A31-4165-9AC5-25C76B87F34C}"/>
-    <hyperlink ref="M13" r:id="rId4" display="1-Daniel" xr:uid="{2629E441-C5A8-4B1A-BBAA-14A35D1181FD}"/>
-    <hyperlink ref="M19" r:id="rId5" xr:uid="{50D26E8F-2FD9-4D36-A4B3-80228709197F}"/>
-    <hyperlink ref="M20" r:id="rId6" xr:uid="{D9C200B7-244B-4D4A-B2DF-56EFC46399FA}"/>
-    <hyperlink ref="M21" r:id="rId7" xr:uid="{7103E6EE-76D1-4FBF-B3EC-C2ACE9AF27A4}"/>
-    <hyperlink ref="M22" r:id="rId8" xr:uid="{E252332C-F9DD-4821-9CD8-765D2A7F1B30}"/>
-    <hyperlink ref="M18" r:id="rId9" xr:uid="{4892DF0C-581C-4049-887F-2ED64835618C}"/>
-    <hyperlink ref="D79" r:id="rId10" xr:uid="{DA47BBB9-7D88-4938-AFA5-1B968928E547}"/>
+    <hyperlink ref="M10" r:id="rId1" display="1-Gauthier"/>
+    <hyperlink ref="M11" r:id="rId2" display="1-Satish"/>
+    <hyperlink ref="M12" r:id="rId3" display="1-Ali"/>
+    <hyperlink ref="M13" r:id="rId4" display="1-Daniel"/>
+    <hyperlink ref="M18" r:id="rId5"/>
+    <hyperlink ref="M19" r:id="rId6"/>
+    <hyperlink ref="M20" r:id="rId7"/>
+    <hyperlink ref="M21" r:id="rId8"/>
+    <hyperlink ref="M17" r:id="rId9"/>
+    <hyperlink ref="D77" r:id="rId10"/>
+    <hyperlink ref="M24" r:id="rId11"/>
+    <hyperlink ref="M26" r:id="rId12"/>
+    <hyperlink ref="M27" r:id="rId13"/>
+    <hyperlink ref="M28" r:id="rId14"/>
+    <hyperlink ref="M25" r:id="rId15"/>
+    <hyperlink ref="D78" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
-  <legacyDrawing r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
+  <legacyDrawing r:id="rId18"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2811,7 +2857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/SP_2018_03_06_CarToCarCommunication.xlsx
+++ b/SP_2018_03_06_CarToCarCommunication.xlsx
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="107">
   <si>
     <t>startdatum</t>
   </si>
@@ -326,12 +326,6 @@
     <t>Theoretical Check</t>
   </si>
   <si>
-    <t>Microcontroller Hardware</t>
-  </si>
-  <si>
-    <t>Server Software</t>
-  </si>
-  <si>
     <t>Pracitcal work</t>
   </si>
   <si>
@@ -344,9 +338,6 @@
     <t>Microcontroller hardware</t>
   </si>
   <si>
-    <t xml:space="preserve">Microcontroller  Software </t>
-  </si>
-  <si>
     <t xml:space="preserve">RC-Car analog pin </t>
   </si>
   <si>
@@ -446,18 +437,12 @@
     <t>Report1</t>
   </si>
   <si>
-    <t>Gauthier, Ali</t>
-  </si>
-  <si>
     <t>Daniel Smetakin, Satish</t>
   </si>
   <si>
     <t>Gauthier,Ali</t>
   </si>
   <si>
-    <t>Daniel</t>
-  </si>
-  <si>
     <t>Daniel,Satish</t>
   </si>
   <si>
@@ -489,6 +474,27 @@
   </si>
   <si>
     <t>Week3 (14/03/2018)</t>
+  </si>
+  <si>
+    <t>Linux_Timeline</t>
+  </si>
+  <si>
+    <t>Arduino IDE</t>
+  </si>
+  <si>
+    <t>Microcontroller Hardware, Voltage stabilizer</t>
+  </si>
+  <si>
+    <t>Server Software, connection with nodeMCU</t>
+  </si>
+  <si>
+    <t>Gauthier,</t>
+  </si>
+  <si>
+    <t>Send UDP packet to other devices Ubuntu</t>
+  </si>
+  <si>
+    <t>Report3</t>
   </si>
 </sst>
 </file>
@@ -1186,17 +1192,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P79"/>
+  <dimension ref="B1:P80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.140625" style="25"/>
     <col min="3" max="3" width="27.42578125" customWidth="1"/>
-    <col min="4" max="4" width="33.5703125" customWidth="1"/>
+    <col min="4" max="4" width="42.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.28515625" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="15.140625" customWidth="1"/>
@@ -1416,7 +1422,7 @@
         <v>30</v>
       </c>
       <c r="M10" s="45" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1450,7 +1456,7 @@
         <v>31</v>
       </c>
       <c r="M11" s="45" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1484,7 +1490,7 @@
         <v>39</v>
       </c>
       <c r="M12" s="45" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -1518,7 +1524,7 @@
         <v>29</v>
       </c>
       <c r="M13" s="45" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -1619,7 +1625,7 @@
       </c>
       <c r="L17" s="24"/>
       <c r="M17" s="45" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="N17" s="37"/>
       <c r="O17" s="39"/>
@@ -1654,7 +1660,7 @@
       </c>
       <c r="L18" s="24"/>
       <c r="M18" s="45" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="N18" s="38"/>
       <c r="O18" s="39"/>
@@ -1689,7 +1695,7 @@
       </c>
       <c r="L19" s="24"/>
       <c r="M19" s="45" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="N19" s="38"/>
       <c r="O19" s="39"/>
@@ -1724,7 +1730,7 @@
       </c>
       <c r="L20" s="24"/>
       <c r="M20" s="45" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N20" s="38"/>
       <c r="O20" s="39"/>
@@ -1759,7 +1765,7 @@
       </c>
       <c r="L21" s="24"/>
       <c r="M21" s="45" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="N21" s="38"/>
       <c r="O21" s="39"/>
@@ -1822,7 +1828,7 @@
         <v>29</v>
       </c>
       <c r="M24" s="45" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -1853,10 +1859,10 @@
         <v>43173</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="M25" s="45" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -1890,7 +1896,7 @@
         <v>31</v>
       </c>
       <c r="M26" s="45" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -1924,9 +1930,11 @@
         <v>40</v>
       </c>
       <c r="M27" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="N27" s="45" t="s">
+        <v>100</v>
+      </c>
       <c r="O27" s="2"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
@@ -1959,7 +1967,7 @@
       </c>
       <c r="L28" s="5"/>
       <c r="M28" s="45" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="N28" s="14"/>
       <c r="O28" s="14"/>
@@ -2003,7 +2011,7 @@
         <v>33</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="E31" s="17" t="s">
         <v>14</v>
@@ -2015,7 +2023,7 @@
         <v>43180</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I31" s="24"/>
       <c r="J31" s="24"/>
@@ -2030,7 +2038,7 @@
         <v>34</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="E32" s="17" t="s">
         <v>14</v>
@@ -2042,7 +2050,7 @@
         <v>43180</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I32" s="43"/>
       <c r="J32" s="24"/>
@@ -2057,7 +2065,7 @@
         <v>35</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="E33" s="17" t="s">
         <v>14</v>
@@ -2069,7 +2077,7 @@
         <v>43180</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="I33" s="43"/>
       <c r="J33" s="24"/>
@@ -2080,55 +2088,54 @@
       <c r="O33" s="14"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D34" s="22"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="24"/>
+      <c r="D34" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="15">
+        <v>43173</v>
+      </c>
+      <c r="G34" s="15">
+        <v>43180</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="I34" s="43"/>
       <c r="J34" s="24"/>
       <c r="K34" s="24"/>
       <c r="L34" s="24"/>
-      <c r="M34" s="14"/>
+      <c r="M34" s="35"/>
       <c r="N34" s="14"/>
       <c r="O34" s="14"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="25">
-        <v>36</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35" s="21"/>
-      <c r="E35" s="5"/>
+      <c r="D35" s="22"/>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
       <c r="M35" s="14"/>
       <c r="N35" s="14"/>
       <c r="O35" s="14"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="25">
-        <v>37</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="E36" s="17"/>
-      <c r="F36" s="15">
-        <v>43180</v>
-      </c>
-      <c r="G36" s="15">
-        <v>43187</v>
-      </c>
-      <c r="H36" s="15" t="s">
-        <v>58</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="21"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
@@ -2139,10 +2146,10 @@
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" s="25">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E37" s="17"/>
       <c r="F37" s="15">
@@ -2152,7 +2159,7 @@
         <v>43187</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
@@ -2164,11 +2171,10 @@
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38" s="25">
-        <v>39</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="21" t="s">
-        <v>55</v>
+        <v>38</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>52</v>
       </c>
       <c r="E38" s="17"/>
       <c r="F38" s="15">
@@ -2178,7 +2184,7 @@
         <v>43187</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
@@ -2190,10 +2196,11 @@
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B39" s="25">
-        <v>40</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C39" s="3"/>
       <c r="D39" s="21" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E39" s="17"/>
       <c r="F39" s="15">
@@ -2203,7 +2210,7 @@
         <v>43187</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
@@ -2214,11 +2221,22 @@
       <c r="O39" s="14"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D40" s="21"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
+      <c r="B40" s="25">
+        <v>40</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" s="17"/>
+      <c r="F40" s="15">
+        <v>43180</v>
+      </c>
+      <c r="G40" s="15">
+        <v>43187</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>31</v>
+      </c>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
@@ -2228,12 +2246,6 @@
       <c r="O40" s="14"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B41" s="25">
-        <v>41</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="D41" s="21"/>
       <c r="E41" s="5"/>
       <c r="F41" s="15"/>
@@ -2249,31 +2261,30 @@
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42" s="25">
-        <v>42</v>
-      </c>
-      <c r="D42" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="E42" s="17"/>
-      <c r="F42" s="15">
-        <v>43187</v>
-      </c>
-      <c r="G42" s="15">
-        <v>43194</v>
-      </c>
-      <c r="H42" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="21"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43" s="25">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E43" s="17"/>
       <c r="F43" s="15">
@@ -2283,7 +2294,7 @@
         <v>43194</v>
       </c>
       <c r="H43" s="15" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -2291,10 +2302,10 @@
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B44" s="25">
-        <v>44</v>
-      </c>
-      <c r="D44" s="21" t="s">
-        <v>55</v>
+        <v>43</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>52</v>
       </c>
       <c r="E44" s="17"/>
       <c r="F44" s="15">
@@ -2304,28 +2315,34 @@
         <v>43194</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="E45" s="5"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
+      <c r="B45" s="25">
+        <v>44</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45" s="17"/>
+      <c r="F45" s="15">
+        <v>43187</v>
+      </c>
+      <c r="G45" s="15">
+        <v>43194</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B46" s="25">
-        <v>46</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="E46" s="5"/>
       <c r="F46" s="15"/>
       <c r="G46" s="15"/>
@@ -2336,31 +2353,25 @@
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B47" s="25">
-        <v>47</v>
-      </c>
-      <c r="D47" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="E47" s="17"/>
-      <c r="F47" s="15">
-        <v>43194</v>
-      </c>
-      <c r="G47" s="15">
-        <v>43201</v>
-      </c>
-      <c r="H47" s="15" t="s">
-        <v>58</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B48" s="25">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E48" s="17"/>
       <c r="F48" s="15">
@@ -2370,7 +2381,7 @@
         <v>43201</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -2378,10 +2389,10 @@
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B49" s="25">
-        <v>49</v>
-      </c>
-      <c r="D49" s="21" t="s">
-        <v>55</v>
+        <v>48</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>52</v>
       </c>
       <c r="E49" s="17"/>
       <c r="F49" s="15">
@@ -2391,28 +2402,35 @@
         <v>43201</v>
       </c>
       <c r="H49" s="15" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D50" s="21"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
+      <c r="B50" s="25">
+        <v>49</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E50" s="17"/>
+      <c r="F50" s="15">
+        <v>43194</v>
+      </c>
+      <c r="G50" s="15">
+        <v>43201</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>90</v>
+      </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B51" s="25">
-        <v>50</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>61</v>
-      </c>
+      <c r="D51" s="21"/>
       <c r="F51" s="15"/>
       <c r="G51" s="15"/>
       <c r="H51" s="15"/>
@@ -2422,40 +2440,40 @@
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B52" s="25">
-        <v>51</v>
-      </c>
-      <c r="D52" t="s">
-        <v>62</v>
-      </c>
-      <c r="E52" s="17"/>
-      <c r="F52" s="15">
-        <v>43201</v>
-      </c>
-      <c r="G52" s="15">
-        <v>43208</v>
-      </c>
-      <c r="H52" s="15" t="s">
-        <v>63</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
+      <c r="B53" s="25">
+        <v>51</v>
+      </c>
+      <c r="D53" t="s">
+        <v>59</v>
+      </c>
+      <c r="E53" s="17"/>
+      <c r="F53" s="15">
+        <v>43201</v>
+      </c>
+      <c r="G53" s="15">
+        <v>43208</v>
+      </c>
+      <c r="H53" s="15" t="s">
+        <v>60</v>
+      </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B54" s="25">
-        <v>52</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="F54" s="15"/>
       <c r="G54" s="15"/>
       <c r="H54" s="15"/>
@@ -2465,18 +2483,13 @@
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B55" s="25">
-        <v>53</v>
-      </c>
-      <c r="D55" t="s">
-        <v>65</v>
-      </c>
-      <c r="E55" s="17"/>
-      <c r="F55" s="15">
-        <v>43208</v>
-      </c>
-      <c r="G55" s="15">
-        <v>43215</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
       <c r="H55" s="15"/>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -2484,10 +2497,10 @@
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B56" s="25">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D56" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E56" s="17"/>
       <c r="F56" s="15">
@@ -2503,10 +2516,10 @@
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B57" s="25">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D57" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E57" s="17"/>
       <c r="F57" s="15">
@@ -2522,10 +2535,10 @@
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B58" s="25">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D58" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E58" s="17"/>
       <c r="F58" s="15">
@@ -2540,20 +2553,25 @@
       <c r="O58" s="2"/>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
+      <c r="B59" s="25">
+        <v>56</v>
+      </c>
+      <c r="D59" t="s">
+        <v>62</v>
+      </c>
+      <c r="E59" s="17"/>
+      <c r="F59" s="15">
+        <v>43208</v>
+      </c>
+      <c r="G59" s="15">
+        <v>43215</v>
+      </c>
       <c r="H59" s="15"/>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B60" s="25">
-        <v>57</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="F60" s="15"/>
       <c r="G60" s="15"/>
       <c r="H60" s="15"/>
@@ -2563,31 +2581,24 @@
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B61" s="25">
-        <v>58</v>
-      </c>
-      <c r="D61" t="s">
-        <v>67</v>
-      </c>
-      <c r="E61" s="17"/>
-      <c r="F61" s="15">
-        <v>43215</v>
-      </c>
-      <c r="G61" s="15">
-        <v>43222</v>
-      </c>
-      <c r="H61" s="15" t="s">
-        <v>72</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B62" s="25">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D62" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E62" s="17"/>
       <c r="F62" s="15">
@@ -2597,7 +2608,7 @@
         <v>43222</v>
       </c>
       <c r="H62" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -2605,10 +2616,10 @@
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B63" s="25">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D63" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E63" s="17"/>
       <c r="F63" s="15">
@@ -2618,27 +2629,34 @@
         <v>43222</v>
       </c>
       <c r="H63" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="15"/>
+      <c r="B64" s="25">
+        <v>60</v>
+      </c>
+      <c r="D64" t="s">
+        <v>66</v>
+      </c>
+      <c r="E64" s="17"/>
+      <c r="F64" s="15">
+        <v>43215</v>
+      </c>
+      <c r="G64" s="15">
+        <v>43222</v>
+      </c>
+      <c r="H64" s="15" t="s">
+        <v>67</v>
+      </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B65" s="25">
-        <v>61</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="F65" s="15"/>
       <c r="G65" s="15"/>
       <c r="H65" s="15"/>
@@ -2648,18 +2666,13 @@
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B66" s="25">
-        <v>62</v>
-      </c>
-      <c r="D66" t="s">
-        <v>74</v>
-      </c>
-      <c r="E66" s="17"/>
-      <c r="F66" s="15">
-        <v>43222</v>
-      </c>
-      <c r="G66" s="15">
-        <v>43229</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
       <c r="H66" s="15"/>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -2667,10 +2680,10 @@
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B67" s="25">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D67" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E67" s="17"/>
       <c r="F67" s="15">
@@ -2686,10 +2699,10 @@
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B68" s="25">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D68" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E68" s="17"/>
       <c r="F68" s="15">
@@ -2704,20 +2717,25 @@
       <c r="O68" s="2"/>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
+      <c r="B69" s="25">
+        <v>64</v>
+      </c>
+      <c r="D69" t="s">
+        <v>73</v>
+      </c>
+      <c r="E69" s="17"/>
+      <c r="F69" s="15">
+        <v>43222</v>
+      </c>
+      <c r="G69" s="15">
+        <v>43229</v>
+      </c>
       <c r="H69" s="15"/>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B70" s="25">
-        <v>65</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="F70" s="15"/>
       <c r="G70" s="15"/>
       <c r="H70" s="15"/>
@@ -2727,18 +2745,13 @@
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B71" s="25">
-        <v>66</v>
-      </c>
-      <c r="D71" t="s">
+        <v>65</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E71" s="17"/>
-      <c r="F71" s="15">
-        <v>43229</v>
-      </c>
-      <c r="G71" s="15">
-        <v>43236</v>
-      </c>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
       <c r="H71" s="15"/>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -2746,10 +2759,10 @@
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B72" s="25">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D72" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E72" s="17"/>
       <c r="F72" s="15">
@@ -2765,10 +2778,10 @@
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B73" s="25">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D73" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E73" s="17"/>
       <c r="F73" s="15">
@@ -2782,30 +2795,52 @@
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
     </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C76" s="3" t="s">
-        <v>87</v>
-      </c>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B74" s="25">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>73</v>
+      </c>
+      <c r="E74" s="17"/>
+      <c r="F74" s="15">
+        <v>43229</v>
+      </c>
+      <c r="G74" s="15">
+        <v>43236</v>
+      </c>
+      <c r="H74" s="15"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
     </row>
     <row r="77" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C77" t="s">
-        <v>88</v>
-      </c>
-      <c r="D77" s="46" t="s">
-        <v>89</v>
+      <c r="C77" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D78" s="46" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
-        <v>104</v>
+        <v>97</v>
+      </c>
+      <c r="D79" s="46" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="80" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
+        <v>99</v>
+      </c>
+      <c r="D80" s="46" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2821,26 +2856,28 @@
     <mergeCell ref="B6:D6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="M10" r:id="rId1" display="1-Gauthier"/>
-    <hyperlink ref="M11" r:id="rId2" display="1-Satish"/>
-    <hyperlink ref="M12" r:id="rId3" display="1-Ali"/>
-    <hyperlink ref="M13" r:id="rId4" display="1-Daniel"/>
+    <hyperlink ref="M10" r:id="rId1"/>
+    <hyperlink ref="M11" r:id="rId2"/>
+    <hyperlink ref="M12" r:id="rId3"/>
+    <hyperlink ref="M13" r:id="rId4"/>
     <hyperlink ref="M18" r:id="rId5"/>
     <hyperlink ref="M19" r:id="rId6"/>
     <hyperlink ref="M20" r:id="rId7"/>
     <hyperlink ref="M21" r:id="rId8"/>
     <hyperlink ref="M17" r:id="rId9"/>
-    <hyperlink ref="D77" r:id="rId10"/>
+    <hyperlink ref="D78" r:id="rId10"/>
     <hyperlink ref="M24" r:id="rId11"/>
     <hyperlink ref="M26" r:id="rId12"/>
     <hyperlink ref="M27" r:id="rId13"/>
     <hyperlink ref="M28" r:id="rId14"/>
     <hyperlink ref="M25" r:id="rId15"/>
-    <hyperlink ref="D78" r:id="rId16"/>
+    <hyperlink ref="D79" r:id="rId16"/>
+    <hyperlink ref="N27" r:id="rId17"/>
+    <hyperlink ref="D80" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
-  <legacyDrawing r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
+  <legacyDrawing r:id="rId20"/>
 </worksheet>
 </file>
 

--- a/SP_2018_03_06_CarToCarCommunication.xlsx
+++ b/SP_2018_03_06_CarToCarCommunication.xlsx
@@ -1,32 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+  <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asif Wasefi\Google Drive\School\UA_Elektronica_ICT\4deSemester\Scientific_Project\Planning1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gauthier\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF73574-734A-492F-A3F6-AF1A48B2D94F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
     <sheet name="Blad2" sheetId="2" r:id="rId2"/>
     <sheet name="Blad3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>willy loockx</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -50,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0">
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -64,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="0" shapeId="0">
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -81,21 +87,21 @@
         </r>
       </text>
     </comment>
-    <comment ref="C16" authorId="0" shapeId="0">
+    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">plaats hier de naam van de uit tevoeren taak
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="D17" authorId="0" shapeId="0">
+    <comment ref="D17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -109,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D18" authorId="0" shapeId="0">
+    <comment ref="D18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -123,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D19" authorId="0" shapeId="0">
+    <comment ref="D19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -142,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="126">
   <si>
     <t>startdatum</t>
   </si>
@@ -218,9 +224,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
     <t>websites</t>
   </si>
   <si>
@@ -338,9 +341,6 @@
     <t>Microcontroller hardware</t>
   </si>
   <si>
-    <t xml:space="preserve">RC-Car analog pin </t>
-  </si>
-  <si>
     <t>Asif</t>
   </si>
   <si>
@@ -482,9 +482,6 @@
     <t>Arduino IDE</t>
   </si>
   <si>
-    <t>Microcontroller Hardware, Voltage stabilizer</t>
-  </si>
-  <si>
     <t>Server Software, connection with nodeMCU</t>
   </si>
   <si>
@@ -495,12 +492,78 @@
   </si>
   <si>
     <t>Report3</t>
+  </si>
+  <si>
+    <t>4 Asif Server_connection_nodeMCU</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>Voltage stabilizer</t>
+  </si>
+  <si>
+    <t>Gauthier</t>
+  </si>
+  <si>
+    <t>4 Daniel WP_Motor_Programming</t>
+  </si>
+  <si>
+    <t>4 Gauthier21_03 ESP8266 Programming</t>
+  </si>
+  <si>
+    <t>4 Ali NodeMCU-UDP</t>
+  </si>
+  <si>
+    <t>Microcontroller Software: SR04</t>
+  </si>
+  <si>
+    <t>Time calculation UDP packet transmitting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motor Programming </t>
+  </si>
+  <si>
+    <t>Integration H-bridge into motor programming</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Statistics of measurements</t>
+  </si>
+  <si>
+    <t>Are all the voltages of the components correct</t>
+  </si>
+  <si>
+    <t>materieel in leen: DC motor, H-brug,  3,9kohm weerstand , breadbord</t>
+  </si>
+  <si>
+    <t>Satish, Ali</t>
+  </si>
+  <si>
+    <t>Preparations/Preparation 28 MAR/Report 28_03 HC_SR04 sonar ranging module.pdf</t>
+  </si>
+  <si>
+    <t>Preparations/Preparation 28 MAR/CurrentsAndVoltages-SS-AA.pdf</t>
+  </si>
+  <si>
+    <t>Preparations/Preparation 28 MAR/poweringOfNodeMCU-SS.pdf</t>
+  </si>
+  <si>
+    <t>Powering of nodeMCU</t>
+  </si>
+  <si>
+    <t>Preparations/Preparation 28 MAR/WP_Motor_Programming_Daniel_SmetankinV2.pdf</t>
+  </si>
+  <si>
+    <t>Preparations/Preparation 28 MAR/5_Asif_Measuring_UDP_latency.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -560,12 +623,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -588,8 +645,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -614,6 +677,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -625,14 +694,14 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,33 +709,33 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -675,7 +744,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -683,17 +752,17 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -703,7 +772,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -711,12 +780,12 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,27 +794,27 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -809,23 +878,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -833,19 +902,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -861,8 +927,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -890,7 +968,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -906,9 +984,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -946,9 +1024,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -983,7 +1061,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1018,7 +1096,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1191,16 +1269,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:P83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E84" sqref="E84"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.140625" style="25"/>
+    <col min="2" max="2" width="8.85546875" style="25"/>
     <col min="3" max="3" width="27.42578125" customWidth="1"/>
     <col min="4" max="4" width="42.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.28515625" customWidth="1"/>
@@ -1211,7 +1289,7 @@
     <col min="10" max="10" width="13" customWidth="1"/>
     <col min="11" max="11" width="22.28515625" customWidth="1"/>
     <col min="12" max="12" width="4.140625" customWidth="1"/>
-    <col min="13" max="13" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="66.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20.7109375" customWidth="1"/>
     <col min="15" max="15" width="18.140625" customWidth="1"/>
     <col min="16" max="16" width="34.7109375" customWidth="1"/>
@@ -1220,21 +1298,21 @@
     <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:16" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="31"/>
-      <c r="C2" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
+      <c r="C2" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
       <c r="P2" s="32"/>
     </row>
     <row r="3" spans="2:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1254,29 +1332,29 @@
     </row>
     <row r="4" spans="2:16" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="26"/>
-      <c r="C4" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="53"/>
+      <c r="C4" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="56"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52" t="s">
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
       <c r="L4" s="19"/>
-      <c r="M4" s="51" t="s">
+      <c r="M4" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
       <c r="P4" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
@@ -1297,39 +1375,39 @@
       <c r="P5" s="7"/>
     </row>
     <row r="6" spans="2:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="48" t="s">
+      <c r="F6" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="49" t="s">
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="18"/>
-      <c r="M6" s="50" t="s">
+      <c r="M6" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
       <c r="P6" s="28"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="D7" s="39" t="s">
         <v>18</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>19</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>1</v>
@@ -1354,10 +1432,10 @@
       </c>
       <c r="L7" s="23"/>
       <c r="M7" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O7" s="9" t="s">
         <v>8</v>
@@ -1384,7 +1462,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
@@ -1398,7 +1476,7 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>13</v>
@@ -1410,19 +1488,19 @@
         <v>43159</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="44">
+        <v>29</v>
+      </c>
+      <c r="I10" s="43">
         <v>43333</v>
       </c>
-      <c r="J10" s="44">
+      <c r="J10" s="43">
         <v>43159</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10" s="45" t="s">
-        <v>78</v>
+        <v>29</v>
+      </c>
+      <c r="M10" s="44" t="s">
+        <v>76</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1432,7 +1510,7 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>13</v>
@@ -1444,19 +1522,19 @@
         <v>43159</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="44">
+        <v>37</v>
+      </c>
+      <c r="I11" s="43">
         <v>43333</v>
       </c>
-      <c r="J11" s="44">
+      <c r="J11" s="43">
         <v>43159</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" s="45" t="s">
-        <v>79</v>
+        <v>30</v>
+      </c>
+      <c r="M11" s="44" t="s">
+        <v>77</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1466,7 +1544,7 @@
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>13</v>
@@ -1478,19 +1556,19 @@
         <v>43159</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" s="44">
+        <v>38</v>
+      </c>
+      <c r="I12" s="43">
         <v>43333</v>
       </c>
-      <c r="J12" s="44">
+      <c r="J12" s="43">
         <v>43159</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M12" s="45" t="s">
-        <v>80</v>
+        <v>38</v>
+      </c>
+      <c r="M12" s="44" t="s">
+        <v>78</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -1500,7 +1578,7 @@
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>13</v>
@@ -1512,19 +1590,19 @@
         <v>43159</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" s="44">
+        <v>28</v>
+      </c>
+      <c r="I13" s="43">
         <v>43333</v>
       </c>
-      <c r="J13" s="44">
+      <c r="J13" s="43">
         <v>43159</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M13" s="45" t="s">
-        <v>81</v>
+        <v>28</v>
+      </c>
+      <c r="M13" s="44" t="s">
+        <v>79</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -1534,7 +1612,7 @@
         <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>13</v>
@@ -1546,16 +1624,16 @@
         <v>43159</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" s="44">
+        <v>39</v>
+      </c>
+      <c r="I14" s="43">
         <v>43333</v>
       </c>
-      <c r="J14" s="44">
+      <c r="J14" s="43">
         <v>43159</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1567,40 +1645,40 @@
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
       <c r="K15" s="24"/>
       <c r="L15" s="24"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="42"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="41"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="25">
         <v>20</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="5"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
       <c r="K16" s="24"/>
       <c r="L16" s="24"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="25">
         <v>21</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>13</v>
@@ -1612,30 +1690,30 @@
         <v>43166</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" s="43">
+        <v>28</v>
+      </c>
+      <c r="I17" s="42">
         <v>43159</v>
       </c>
-      <c r="J17" s="43">
+      <c r="J17" s="42">
         <v>43166</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L17" s="24"/>
-      <c r="M17" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="N17" s="37"/>
-      <c r="O17" s="39"/>
+      <c r="M17" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="N17" s="36"/>
+      <c r="O17" s="38"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="25">
         <v>22</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>13</v>
@@ -1647,30 +1725,30 @@
         <v>43166</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I18" s="43">
+        <v>29</v>
+      </c>
+      <c r="I18" s="42">
         <v>43159</v>
       </c>
-      <c r="J18" s="43">
+      <c r="J18" s="42">
         <v>43166</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L18" s="24"/>
-      <c r="M18" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="N18" s="38"/>
-      <c r="O18" s="39"/>
+      <c r="M18" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="N18" s="37"/>
+      <c r="O18" s="38"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="25">
         <v>23</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>13</v>
@@ -1682,30 +1760,30 @@
         <v>43166</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="I19" s="43">
+        <v>30</v>
+      </c>
+      <c r="I19" s="42">
         <v>43159</v>
       </c>
-      <c r="J19" s="43">
+      <c r="J19" s="42">
         <v>43166</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L19" s="24"/>
-      <c r="M19" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="N19" s="38"/>
-      <c r="O19" s="39"/>
+      <c r="M19" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="N19" s="37"/>
+      <c r="O19" s="38"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="25">
         <v>24</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>13</v>
@@ -1717,30 +1795,30 @@
         <v>43166</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="I20" s="43">
+        <v>38</v>
+      </c>
+      <c r="I20" s="42">
         <v>43159</v>
       </c>
-      <c r="J20" s="43">
+      <c r="J20" s="42">
         <v>43166</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L20" s="24"/>
-      <c r="M20" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="N20" s="38"/>
-      <c r="O20" s="39"/>
+      <c r="M20" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="N20" s="37"/>
+      <c r="O20" s="38"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="25">
         <v>25</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>13</v>
@@ -1752,23 +1830,23 @@
         <v>43166</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="I21" s="43">
+        <v>39</v>
+      </c>
+      <c r="I21" s="42">
         <v>43159</v>
       </c>
-      <c r="J21" s="43">
+      <c r="J21" s="42">
         <v>43166</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L21" s="24"/>
-      <c r="M21" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="N21" s="38"/>
-      <c r="O21" s="39"/>
+      <c r="M21" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="N21" s="37"/>
+      <c r="O21" s="38"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D22" s="22"/>
@@ -1776,26 +1854,26 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
       <c r="K22" s="1"/>
       <c r="L22" s="24"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="39"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="38"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="25">
         <v>26</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
       <c r="K23" s="1"/>
-      <c r="M23" s="45"/>
+      <c r="M23" s="44"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
     </row>
@@ -1804,7 +1882,7 @@
         <v>27</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>13</v>
@@ -1816,19 +1894,19 @@
         <v>43173</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" s="44">
+        <v>46</v>
+      </c>
+      <c r="I24" s="43">
         <v>43166</v>
       </c>
-      <c r="J24" s="44">
+      <c r="J24" s="43">
         <v>43173</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M24" s="45" t="s">
-        <v>92</v>
+        <v>28</v>
+      </c>
+      <c r="M24" s="44" t="s">
+        <v>90</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -1838,7 +1916,7 @@
         <v>28</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>13</v>
@@ -1850,19 +1928,19 @@
         <v>43173</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="I25" s="44">
+        <v>47</v>
+      </c>
+      <c r="I25" s="43">
         <v>43166</v>
       </c>
-      <c r="J25" s="44">
+      <c r="J25" s="43">
         <v>43173</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="M25" s="45" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="M25" s="44" t="s">
+        <v>93</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -1872,7 +1950,7 @@
         <v>29</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>13</v>
@@ -1884,19 +1962,19 @@
         <v>43173</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="I26" s="44">
+        <v>30</v>
+      </c>
+      <c r="I26" s="43">
         <v>43166</v>
       </c>
-      <c r="J26" s="44">
+      <c r="J26" s="43">
         <v>43173</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M26" s="45" t="s">
-        <v>91</v>
+        <v>30</v>
+      </c>
+      <c r="M26" s="44" t="s">
+        <v>89</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -1906,7 +1984,7 @@
         <v>30</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>13</v>
@@ -1918,22 +1996,22 @@
         <v>43173</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="I27" s="44">
+        <v>39</v>
+      </c>
+      <c r="I27" s="43">
         <v>43166</v>
       </c>
-      <c r="J27" s="44">
+      <c r="J27" s="43">
         <v>43173</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="N27" s="45" t="s">
-        <v>100</v>
+        <v>39</v>
+      </c>
+      <c r="M27" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="N27" s="44" t="s">
+        <v>98</v>
       </c>
       <c r="O27" s="2"/>
     </row>
@@ -1942,7 +2020,7 @@
         <v>31</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>13</v>
@@ -1954,20 +2032,20 @@
         <v>43173</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="I28" s="44">
+        <v>38</v>
+      </c>
+      <c r="I28" s="43">
         <v>43166</v>
       </c>
-      <c r="J28" s="44">
+      <c r="J28" s="43">
         <v>43173</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L28" s="5"/>
-      <c r="M28" s="45" t="s">
-        <v>94</v>
+      <c r="M28" s="44" t="s">
+        <v>92</v>
       </c>
       <c r="N28" s="14"/>
       <c r="O28" s="14"/>
@@ -1991,7 +2069,7 @@
         <v>32</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D30" s="21"/>
       <c r="E30" s="5"/>
@@ -2002,19 +2080,19 @@
       <c r="J30" s="24"/>
       <c r="K30" s="24"/>
       <c r="L30" s="24"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="42"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="41"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="25">
         <v>33</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>14</v>
+        <v>100</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="F31" s="15">
         <v>43173</v>
@@ -2023,25 +2101,33 @@
         <v>43180</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
+        <v>53</v>
+      </c>
+      <c r="I31" s="42">
+        <v>43173</v>
+      </c>
+      <c r="J31" s="42">
+        <v>43180</v>
+      </c>
+      <c r="K31" s="24" t="s">
+        <v>53</v>
+      </c>
       <c r="L31" s="24"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="42"/>
+      <c r="M31" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="25">
         <v>34</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>14</v>
+        <v>113</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="F32" s="15">
         <v>43173</v>
@@ -2050,25 +2136,33 @@
         <v>43180</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="I32" s="43"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
+        <v>85</v>
+      </c>
+      <c r="I32" s="42">
+        <v>43173</v>
+      </c>
+      <c r="J32" s="42">
+        <v>43187</v>
+      </c>
+      <c r="K32" s="24" t="s">
+        <v>88</v>
+      </c>
       <c r="L32" s="24"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="42"/>
-      <c r="O32" s="42"/>
+      <c r="M32" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33" s="25">
         <v>35</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>14</v>
+        <v>99</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="F33" s="15">
         <v>43173</v>
@@ -2077,22 +2171,30 @@
         <v>43180</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="I33" s="43"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
+        <v>101</v>
+      </c>
+      <c r="I33" s="42">
+        <v>43173</v>
+      </c>
+      <c r="J33" s="42">
+        <v>43180</v>
+      </c>
+      <c r="K33" s="24" t="s">
+        <v>107</v>
+      </c>
       <c r="L33" s="24"/>
-      <c r="M33" s="35"/>
+      <c r="M33" s="46" t="s">
+        <v>109</v>
+      </c>
       <c r="N33" s="14"/>
       <c r="O33" s="14"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D34" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>14</v>
+        <v>102</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="F34" s="15">
         <v>43173</v>
@@ -2101,21 +2203,40 @@
         <v>43180</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="I34" s="43"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
+        <v>94</v>
+      </c>
+      <c r="I34" s="42">
+        <v>43173</v>
+      </c>
+      <c r="J34" s="42">
+        <v>43180</v>
+      </c>
+      <c r="K34" s="24" t="s">
+        <v>94</v>
+      </c>
       <c r="L34" s="24"/>
-      <c r="M34" s="35"/>
+      <c r="M34" s="46" t="s">
+        <v>110</v>
+      </c>
       <c r="N34" s="14"/>
       <c r="O34" s="14"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D35" s="22"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
+      <c r="D35" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="E35" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="F35" s="15">
+        <v>43173</v>
+      </c>
+      <c r="G35" s="15">
+        <v>43180</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>30</v>
+      </c>
       <c r="I35" s="24"/>
       <c r="J35" s="24"/>
       <c r="K35" s="24"/>
@@ -2129,7 +2250,7 @@
         <v>36</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D36" s="21"/>
       <c r="E36" s="5"/>
@@ -2149,9 +2270,11 @@
         <v>37</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="E37" s="17"/>
+        <v>112</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="F37" s="15">
         <v>43180</v>
       </c>
@@ -2159,13 +2282,21 @@
         <v>43187</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
+        <v>53</v>
+      </c>
+      <c r="I37" s="48">
+        <v>43180</v>
+      </c>
+      <c r="J37" s="48">
+        <v>43187</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="L37" s="5"/>
-      <c r="M37" s="14"/>
+      <c r="M37" s="49" t="s">
+        <v>125</v>
+      </c>
       <c r="N37" s="14"/>
       <c r="O37" s="14"/>
     </row>
@@ -2174,9 +2305,11 @@
         <v>38</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="E38" s="17"/>
+        <v>111</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="F38" s="15">
         <v>43180</v>
       </c>
@@ -2184,13 +2317,21 @@
         <v>43187</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
+        <v>107</v>
+      </c>
+      <c r="I38" s="48">
+        <v>43180</v>
+      </c>
+      <c r="J38" s="48">
+        <v>43187</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>107</v>
+      </c>
       <c r="L38" s="5"/>
-      <c r="M38" s="14"/>
+      <c r="M38" s="49" t="s">
+        <v>120</v>
+      </c>
       <c r="N38" s="14"/>
       <c r="O38" s="14"/>
     </row>
@@ -2200,9 +2341,11 @@
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="E39" s="17"/>
+        <v>116</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="F39" s="15">
         <v>43180</v>
       </c>
@@ -2210,13 +2353,21 @@
         <v>43187</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
+        <v>94</v>
+      </c>
+      <c r="I39" s="48">
+        <v>43180</v>
+      </c>
+      <c r="J39" s="48">
+        <v>43187</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>119</v>
+      </c>
       <c r="L39" s="5"/>
-      <c r="M39" s="14"/>
+      <c r="M39" s="49" t="s">
+        <v>121</v>
+      </c>
       <c r="N39" s="14"/>
       <c r="O39" s="14"/>
     </row>
@@ -2225,9 +2376,11 @@
         <v>40</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E40" s="17"/>
+        <v>117</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="F40" s="15">
         <v>43180</v>
       </c>
@@ -2235,77 +2388,114 @@
         <v>43187</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="I40" s="48">
+        <v>43180</v>
+      </c>
+      <c r="J40" s="48">
+        <v>43187</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>119</v>
+      </c>
       <c r="L40" s="5"/>
-      <c r="M40" s="14"/>
+      <c r="M40" s="49" t="s">
+        <v>121</v>
+      </c>
       <c r="N40" s="14"/>
       <c r="O40" s="14"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D41" s="21"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
+      <c r="D41" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="15">
+        <v>43173</v>
+      </c>
+      <c r="G41" s="15">
+        <v>43187</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I41" s="48">
+        <v>43180</v>
+      </c>
+      <c r="J41" s="48">
+        <v>43187</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="L41" s="5"/>
-      <c r="M41" s="14"/>
+      <c r="M41" s="49" t="s">
+        <v>122</v>
+      </c>
       <c r="N41" s="14"/>
       <c r="O41" s="14"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B42" s="25">
-        <v>41</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D42" s="21"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
+      <c r="D42" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="15">
+        <v>43180</v>
+      </c>
+      <c r="G42" s="15">
+        <v>43187</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="I42" s="48">
+        <v>43180</v>
+      </c>
+      <c r="J42" s="48">
+        <v>43187</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>115</v>
+      </c>
       <c r="L42" s="5"/>
-      <c r="M42" s="14"/>
+      <c r="M42" s="49" t="s">
+        <v>124</v>
+      </c>
       <c r="N42" s="14"/>
       <c r="O42" s="14"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43" s="25">
-        <v>42</v>
-      </c>
-      <c r="D43" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="E43" s="17"/>
-      <c r="F43" s="15">
-        <v>43187</v>
-      </c>
-      <c r="G43" s="15">
-        <v>43194</v>
-      </c>
-      <c r="H43" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="21"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B44" s="25">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E44" s="17"/>
       <c r="F44" s="15">
@@ -2315,7 +2505,7 @@
         <v>43194</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -2323,10 +2513,10 @@
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B45" s="25">
-        <v>44</v>
-      </c>
-      <c r="D45" s="21" t="s">
-        <v>53</v>
+        <v>43</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>51</v>
       </c>
       <c r="E45" s="17"/>
       <c r="F45" s="15">
@@ -2336,28 +2526,34 @@
         <v>43194</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="E46" s="5"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
+      <c r="B46" s="25">
+        <v>44</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46" s="17"/>
+      <c r="F46" s="15">
+        <v>43187</v>
+      </c>
+      <c r="G46" s="15">
+        <v>43194</v>
+      </c>
+      <c r="H46" s="15" t="s">
+        <v>87</v>
+      </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B47" s="25">
-        <v>46</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="E47" s="5"/>
       <c r="F47" s="15"/>
       <c r="G47" s="15"/>
@@ -2368,31 +2564,25 @@
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B48" s="25">
-        <v>47</v>
-      </c>
-      <c r="D48" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="E48" s="17"/>
-      <c r="F48" s="15">
-        <v>43194</v>
-      </c>
-      <c r="G48" s="15">
-        <v>43201</v>
-      </c>
-      <c r="H48" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="E48" s="5"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B49" s="25">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E49" s="17"/>
       <c r="F49" s="15">
@@ -2402,7 +2592,7 @@
         <v>43201</v>
       </c>
       <c r="H49" s="15" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -2410,10 +2600,10 @@
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B50" s="25">
-        <v>49</v>
-      </c>
-      <c r="D50" s="21" t="s">
-        <v>53</v>
+        <v>48</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>51</v>
       </c>
       <c r="E50" s="17"/>
       <c r="F50" s="15">
@@ -2423,28 +2613,35 @@
         <v>43201</v>
       </c>
       <c r="H50" s="15" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D51" s="21"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
+      <c r="B51" s="25">
+        <v>49</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" s="17"/>
+      <c r="F51" s="15">
+        <v>43194</v>
+      </c>
+      <c r="G51" s="15">
+        <v>43201</v>
+      </c>
+      <c r="H51" s="15" t="s">
+        <v>88</v>
+      </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B52" s="25">
-        <v>50</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="D52" s="21"/>
       <c r="F52" s="15"/>
       <c r="G52" s="15"/>
       <c r="H52" s="15"/>
@@ -2454,40 +2651,40 @@
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B53" s="25">
-        <v>51</v>
-      </c>
-      <c r="D53" t="s">
-        <v>59</v>
-      </c>
-      <c r="E53" s="17"/>
-      <c r="F53" s="15">
-        <v>43201</v>
-      </c>
-      <c r="G53" s="15">
-        <v>43208</v>
-      </c>
-      <c r="H53" s="15" t="s">
-        <v>60</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
+      <c r="B54" s="25">
+        <v>51</v>
+      </c>
+      <c r="D54" t="s">
+        <v>57</v>
+      </c>
+      <c r="E54" s="17"/>
+      <c r="F54" s="15">
+        <v>43201</v>
+      </c>
+      <c r="G54" s="15">
+        <v>43208</v>
+      </c>
+      <c r="H54" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B55" s="25">
-        <v>52</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="F55" s="15"/>
       <c r="G55" s="15"/>
       <c r="H55" s="15"/>
@@ -2497,18 +2694,13 @@
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B56" s="25">
-        <v>53</v>
-      </c>
-      <c r="D56" t="s">
-        <v>62</v>
-      </c>
-      <c r="E56" s="17"/>
-      <c r="F56" s="15">
-        <v>43208</v>
-      </c>
-      <c r="G56" s="15">
-        <v>43215</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
       <c r="H56" s="15"/>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -2516,10 +2708,10 @@
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B57" s="25">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D57" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E57" s="17"/>
       <c r="F57" s="15">
@@ -2535,10 +2727,10 @@
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B58" s="25">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D58" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E58" s="17"/>
       <c r="F58" s="15">
@@ -2554,10 +2746,10 @@
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B59" s="25">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D59" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E59" s="17"/>
       <c r="F59" s="15">
@@ -2572,20 +2764,25 @@
       <c r="O59" s="2"/>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
+      <c r="B60" s="25">
+        <v>56</v>
+      </c>
+      <c r="D60" t="s">
+        <v>60</v>
+      </c>
+      <c r="E60" s="17"/>
+      <c r="F60" s="15">
+        <v>43208</v>
+      </c>
+      <c r="G60" s="15">
+        <v>43215</v>
+      </c>
       <c r="H60" s="15"/>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B61" s="25">
-        <v>57</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="F61" s="15"/>
       <c r="G61" s="15"/>
       <c r="H61" s="15"/>
@@ -2595,31 +2792,24 @@
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B62" s="25">
-        <v>58</v>
-      </c>
-      <c r="D62" t="s">
-        <v>64</v>
-      </c>
-      <c r="E62" s="17"/>
-      <c r="F62" s="15">
-        <v>43215</v>
-      </c>
-      <c r="G62" s="15">
-        <v>43222</v>
-      </c>
-      <c r="H62" s="15" t="s">
-        <v>69</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B63" s="25">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D63" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E63" s="17"/>
       <c r="F63" s="15">
@@ -2629,7 +2819,7 @@
         <v>43222</v>
       </c>
       <c r="H63" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -2637,10 +2827,10 @@
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B64" s="25">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D64" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E64" s="17"/>
       <c r="F64" s="15">
@@ -2650,27 +2840,34 @@
         <v>43222</v>
       </c>
       <c r="H64" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
+      <c r="B65" s="25">
+        <v>60</v>
+      </c>
+      <c r="D65" t="s">
+        <v>64</v>
+      </c>
+      <c r="E65" s="17"/>
+      <c r="F65" s="15">
+        <v>43215</v>
+      </c>
+      <c r="G65" s="15">
+        <v>43222</v>
+      </c>
+      <c r="H65" s="15" t="s">
+        <v>65</v>
+      </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B66" s="25">
-        <v>61</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="F66" s="15"/>
       <c r="G66" s="15"/>
       <c r="H66" s="15"/>
@@ -2680,18 +2877,13 @@
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B67" s="25">
-        <v>62</v>
-      </c>
-      <c r="D67" t="s">
-        <v>71</v>
-      </c>
-      <c r="E67" s="17"/>
-      <c r="F67" s="15">
-        <v>43222</v>
-      </c>
-      <c r="G67" s="15">
-        <v>43229</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
       <c r="H67" s="15"/>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -2699,10 +2891,10 @@
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B68" s="25">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D68" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E68" s="17"/>
       <c r="F68" s="15">
@@ -2718,10 +2910,10 @@
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B69" s="25">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D69" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E69" s="17"/>
       <c r="F69" s="15">
@@ -2736,20 +2928,25 @@
       <c r="O69" s="2"/>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
+      <c r="B70" s="25">
+        <v>64</v>
+      </c>
+      <c r="D70" t="s">
+        <v>71</v>
+      </c>
+      <c r="E70" s="17"/>
+      <c r="F70" s="15">
+        <v>43222</v>
+      </c>
+      <c r="G70" s="15">
+        <v>43229</v>
+      </c>
       <c r="H70" s="15"/>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B71" s="25">
-        <v>65</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="F71" s="15"/>
       <c r="G71" s="15"/>
       <c r="H71" s="15"/>
@@ -2759,18 +2956,13 @@
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B72" s="25">
-        <v>66</v>
-      </c>
-      <c r="D72" t="s">
-        <v>71</v>
-      </c>
-      <c r="E72" s="17"/>
-      <c r="F72" s="15">
-        <v>43229</v>
-      </c>
-      <c r="G72" s="15">
-        <v>43236</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
       <c r="H72" s="15"/>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -2778,10 +2970,10 @@
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B73" s="25">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D73" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E73" s="17"/>
       <c r="F73" s="15">
@@ -2797,10 +2989,10 @@
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B74" s="25">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D74" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E74" s="17"/>
       <c r="F74" s="15">
@@ -2814,33 +3006,57 @@
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C77" s="3" t="s">
-        <v>84</v>
-      </c>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B75" s="25">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>71</v>
+      </c>
+      <c r="E75" s="17"/>
+      <c r="F75" s="15">
+        <v>43229</v>
+      </c>
+      <c r="G75" s="15">
+        <v>43236</v>
+      </c>
+      <c r="H75" s="15"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C78" t="s">
-        <v>85</v>
-      </c>
-      <c r="D78" s="46" t="s">
-        <v>86</v>
+      <c r="C78" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
-        <v>97</v>
-      </c>
-      <c r="D79" s="46" t="s">
-        <v>98</v>
+        <v>83</v>
+      </c>
+      <c r="D79" s="45" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
-        <v>99</v>
-      </c>
-      <c r="D80" s="46" t="s">
-        <v>106</v>
+        <v>95</v>
+      </c>
+      <c r="D80" s="45" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>97</v>
+      </c>
+      <c r="D81" s="45" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2855,52 +3071,78 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B6:D6"/>
   </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M10" r:id="rId1"/>
-    <hyperlink ref="M11" r:id="rId2"/>
-    <hyperlink ref="M12" r:id="rId3"/>
-    <hyperlink ref="M13" r:id="rId4"/>
-    <hyperlink ref="M18" r:id="rId5"/>
-    <hyperlink ref="M19" r:id="rId6"/>
-    <hyperlink ref="M20" r:id="rId7"/>
-    <hyperlink ref="M21" r:id="rId8"/>
-    <hyperlink ref="M17" r:id="rId9"/>
-    <hyperlink ref="D78" r:id="rId10"/>
-    <hyperlink ref="M24" r:id="rId11"/>
-    <hyperlink ref="M26" r:id="rId12"/>
-    <hyperlink ref="M27" r:id="rId13"/>
-    <hyperlink ref="M28" r:id="rId14"/>
-    <hyperlink ref="M25" r:id="rId15"/>
-    <hyperlink ref="D79" r:id="rId16"/>
-    <hyperlink ref="N27" r:id="rId17"/>
-    <hyperlink ref="D80" r:id="rId18"/>
+    <hyperlink ref="M10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="M11" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="M12" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="M13" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="M18" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="M19" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="M20" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="M21" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="M17" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D79" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="M24" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="M26" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="M27" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="M28" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="M25" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="D80" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="N27" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="D81" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="M31" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="M32" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="M33" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="M34" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="M38" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="M39" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="M40" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="M41" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="M42" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="M37" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
-  <legacyDrawing r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId29"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/SP_2018_03_06_CarToCarCommunication.xlsx
+++ b/SP_2018_03_06_CarToCarCommunication.xlsx
@@ -1,38 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gauthier\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yasin\Downloads\Planning1 (1)\Planning1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF73574-734A-492F-A3F6-AF1A48B2D94F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
     <sheet name="Blad2" sheetId="2" r:id="rId2"/>
     <sheet name="Blad3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>willy loockx</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="C7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="E7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -87,21 +81,21 @@
         </r>
       </text>
     </comment>
-    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="C16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">plaats hier de naam van de uit tevoeren taak
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="D17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="D17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -115,7 +109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="D18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="D19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -148,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="126">
   <si>
     <t>startdatum</t>
   </si>
@@ -536,34 +530,34 @@
     <t>Are all the voltages of the components correct</t>
   </si>
   <si>
-    <t>materieel in leen: DC motor, H-brug,  3,9kohm weerstand , breadbord</t>
-  </si>
-  <si>
-    <t>Satish, Ali</t>
-  </si>
-  <si>
-    <t>Preparations/Preparation 28 MAR/Report 28_03 HC_SR04 sonar ranging module.pdf</t>
-  </si>
-  <si>
-    <t>Preparations/Preparation 28 MAR/CurrentsAndVoltages-SS-AA.pdf</t>
-  </si>
-  <si>
-    <t>Preparations/Preparation 28 MAR/poweringOfNodeMCU-SS.pdf</t>
-  </si>
-  <si>
-    <t>Powering of nodeMCU</t>
-  </si>
-  <si>
-    <t>Preparations/Preparation 28 MAR/WP_Motor_Programming_Daniel_SmetankinV2.pdf</t>
-  </si>
-  <si>
-    <t>Preparations/Preparation 28 MAR/5_Asif_Measuring_UDP_latency.pdf</t>
+    <t>5-Asif Measuring UDP latency</t>
+  </si>
+  <si>
+    <t>5-Gauthier sonar ranging module</t>
+  </si>
+  <si>
+    <t>5-CurrentsAndVoltages-SS-AA</t>
+  </si>
+  <si>
+    <t>5-poweringOfNodeMCU-SS</t>
+  </si>
+  <si>
+    <t>5-WP_Motor_Programming_Daniel_SmetankinV2</t>
+  </si>
+  <si>
+    <t>AliAmir PosterProposition</t>
+  </si>
+  <si>
+    <t>Asif How to make a scientific poster</t>
+  </si>
+  <si>
+    <t>5_Asif_Measuring_UDP_latency</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -623,6 +617,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -641,12 +641,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -694,14 +688,14 @@
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -709,33 +703,33 @@
       <left/>
       <right/>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -744,7 +738,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -752,17 +746,17 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
@@ -772,7 +766,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -780,12 +774,12 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -794,25 +788,25 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -878,23 +872,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -905,13 +899,13 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -927,43 +921,43 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1026,7 +1020,7 @@
     </a:clrScheme>
     <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1061,7 +1055,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1269,16 +1263,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:P83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:P84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView tabSelected="1" topLeftCell="D19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.85546875" style="25"/>
+    <col min="2" max="2" width="9.140625" style="25"/>
     <col min="3" max="3" width="27.42578125" customWidth="1"/>
     <col min="4" max="4" width="42.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.28515625" customWidth="1"/>
@@ -1289,7 +1283,7 @@
     <col min="10" max="10" width="13" customWidth="1"/>
     <col min="11" max="11" width="22.28515625" customWidth="1"/>
     <col min="12" max="12" width="4.140625" customWidth="1"/>
-    <col min="13" max="13" width="66.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="50.85546875" customWidth="1"/>
     <col min="14" max="14" width="20.7109375" customWidth="1"/>
     <col min="15" max="15" width="18.140625" customWidth="1"/>
     <col min="16" max="16" width="34.7109375" customWidth="1"/>
@@ -1298,21 +1292,21 @@
     <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:16" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="31"/>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
       <c r="P2" s="32"/>
     </row>
     <row r="3" spans="2:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1332,27 +1326,27 @@
     </row>
     <row r="4" spans="2:16" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="26"/>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="56"/>
+      <c r="D4" s="54"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="55" t="s">
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
       <c r="L4" s="19"/>
-      <c r="M4" s="54" t="s">
+      <c r="M4" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
       <c r="P4" s="20" t="s">
         <v>15</v>
       </c>
@@ -1375,28 +1369,28 @@
       <c r="P5" s="7"/>
     </row>
     <row r="6" spans="2:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="52" t="s">
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
       <c r="L6" s="18"/>
-      <c r="M6" s="53" t="s">
+      <c r="M6" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
       <c r="P6" s="28"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
@@ -1706,7 +1700,9 @@
         <v>73</v>
       </c>
       <c r="N17" s="36"/>
-      <c r="O17" s="38"/>
+      <c r="O17" s="57" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="25">
@@ -2142,10 +2138,10 @@
         <v>43173</v>
       </c>
       <c r="J32" s="42">
-        <v>43187</v>
+        <v>43180</v>
       </c>
       <c r="K32" s="24" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="L32" s="24"/>
       <c r="M32" s="46" t="s">
@@ -2284,18 +2280,18 @@
       <c r="H37" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="I37" s="48">
+      <c r="I37" s="56">
         <v>43180</v>
       </c>
-      <c r="J37" s="48">
+      <c r="J37" s="56">
         <v>43187</v>
       </c>
       <c r="K37" s="5" t="s">
         <v>53</v>
       </c>
       <c r="L37" s="5"/>
-      <c r="M37" s="49" t="s">
-        <v>125</v>
+      <c r="M37" s="57" t="s">
+        <v>118</v>
       </c>
       <c r="N37" s="14"/>
       <c r="O37" s="14"/>
@@ -2319,18 +2315,18 @@
       <c r="H38" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="I38" s="48">
+      <c r="I38" s="56">
         <v>43180</v>
       </c>
-      <c r="J38" s="48">
+      <c r="J38" s="56">
         <v>43187</v>
       </c>
       <c r="K38" s="5" t="s">
         <v>107</v>
       </c>
       <c r="L38" s="5"/>
-      <c r="M38" s="49" t="s">
-        <v>120</v>
+      <c r="M38" s="57" t="s">
+        <v>119</v>
       </c>
       <c r="N38" s="14"/>
       <c r="O38" s="14"/>
@@ -2355,18 +2351,18 @@
       <c r="H39" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="I39" s="48">
+      <c r="I39" s="56">
         <v>43180</v>
       </c>
-      <c r="J39" s="48">
+      <c r="J39" s="56">
         <v>43187</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="L39" s="5"/>
-      <c r="M39" s="49" t="s">
-        <v>121</v>
+      <c r="M39" s="57" t="s">
+        <v>120</v>
       </c>
       <c r="N39" s="14"/>
       <c r="O39" s="14"/>
@@ -2390,25 +2386,25 @@
       <c r="H40" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I40" s="48">
+      <c r="I40" s="56">
         <v>43180</v>
       </c>
-      <c r="J40" s="48">
+      <c r="J40" s="56">
         <v>43187</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c r="L40" s="5"/>
-      <c r="M40" s="49" t="s">
-        <v>121</v>
+      <c r="M40" s="57" t="s">
+        <v>120</v>
       </c>
       <c r="N40" s="14"/>
       <c r="O40" s="14"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D41" s="22" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="E41" s="16" t="s">
         <v>13</v>
@@ -2422,18 +2418,18 @@
       <c r="H41" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I41" s="48">
+      <c r="I41" s="56">
         <v>43180</v>
       </c>
-      <c r="J41" s="48">
+      <c r="J41" s="56">
         <v>43187</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="L41" s="5"/>
-      <c r="M41" s="49" t="s">
-        <v>122</v>
+      <c r="M41" s="57" t="s">
+        <v>121</v>
       </c>
       <c r="N41" s="14"/>
       <c r="O41" s="14"/>
@@ -2454,18 +2450,18 @@
       <c r="H42" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="I42" s="48">
+      <c r="I42" s="56">
         <v>43180</v>
       </c>
-      <c r="J42" s="48">
+      <c r="J42" s="56">
         <v>43187</v>
       </c>
       <c r="K42" s="5" t="s">
         <v>115</v>
       </c>
       <c r="L42" s="5"/>
-      <c r="M42" s="49" t="s">
-        <v>124</v>
+      <c r="M42" s="57" t="s">
+        <v>122</v>
       </c>
       <c r="N42" s="14"/>
       <c r="O42" s="14"/>
@@ -2497,7 +2493,9 @@
       <c r="D44" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="E44" s="17"/>
+      <c r="E44" s="47" t="s">
+        <v>105</v>
+      </c>
       <c r="F44" s="15">
         <v>43187</v>
       </c>
@@ -2518,7 +2516,9 @@
       <c r="D45" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="E45" s="17"/>
+      <c r="E45" s="47" t="s">
+        <v>105</v>
+      </c>
       <c r="F45" s="15">
         <v>43187</v>
       </c>
@@ -2539,7 +2539,9 @@
       <c r="D46" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="E46" s="17"/>
+      <c r="E46" s="47" t="s">
+        <v>105</v>
+      </c>
       <c r="F46" s="15">
         <v>43187</v>
       </c>
@@ -2584,7 +2586,9 @@
       <c r="D49" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="E49" s="17"/>
+      <c r="E49" s="47" t="s">
+        <v>105</v>
+      </c>
       <c r="F49" s="15">
         <v>43194</v>
       </c>
@@ -2605,7 +2609,9 @@
       <c r="D50" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="E50" s="17"/>
+      <c r="E50" s="47" t="s">
+        <v>105</v>
+      </c>
       <c r="F50" s="15">
         <v>43194</v>
       </c>
@@ -2626,7 +2632,9 @@
       <c r="D51" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="E51" s="17"/>
+      <c r="E51" s="47" t="s">
+        <v>105</v>
+      </c>
       <c r="F51" s="15">
         <v>43194</v>
       </c>
@@ -2670,7 +2678,9 @@
       <c r="D54" t="s">
         <v>57</v>
       </c>
-      <c r="E54" s="17"/>
+      <c r="E54" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="F54" s="15">
         <v>43201</v>
       </c>
@@ -2679,66 +2689,96 @@
       </c>
       <c r="H54" s="15" t="s">
         <v>58</v>
+      </c>
+      <c r="I54" s="15">
+        <v>43201</v>
+      </c>
+      <c r="J54" s="15">
+        <v>43208</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
+      <c r="E55" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="15">
+        <v>43201</v>
+      </c>
+      <c r="G55" s="15">
+        <v>43208</v>
+      </c>
       <c r="H55" s="15"/>
-      <c r="M55" s="2"/>
+      <c r="I55" s="15">
+        <v>43201</v>
+      </c>
+      <c r="J55" s="15">
+        <v>43208</v>
+      </c>
+      <c r="K55" t="s">
+        <v>53</v>
+      </c>
+      <c r="M55" s="44" t="s">
+        <v>124</v>
+      </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B56" s="25">
-        <v>52</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
+      <c r="E56" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="15">
+        <v>43201</v>
+      </c>
+      <c r="G56" s="15">
+        <v>43208</v>
+      </c>
       <c r="H56" s="15"/>
-      <c r="M56" s="2"/>
+      <c r="I56" s="15">
+        <v>43201</v>
+      </c>
+      <c r="J56" s="15">
+        <v>43208</v>
+      </c>
+      <c r="K56" t="s">
+        <v>94</v>
+      </c>
+      <c r="M56" s="44" t="s">
+        <v>123</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B57" s="25">
-        <v>53</v>
-      </c>
-      <c r="D57" t="s">
-        <v>60</v>
-      </c>
-      <c r="E57" s="17"/>
+      <c r="E57" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="F57" s="15">
+        <v>43201</v>
+      </c>
+      <c r="G57" s="15">
         <v>43208</v>
       </c>
-      <c r="G57" s="15">
-        <v>43215</v>
-      </c>
       <c r="H57" s="15"/>
+      <c r="I57" s="15">
+        <v>43201</v>
+      </c>
+      <c r="J57" s="15">
+        <v>43208</v>
+      </c>
+      <c r="K57" t="s">
+        <v>65</v>
+      </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B58" s="25">
-        <v>54</v>
-      </c>
-      <c r="D58" t="s">
-        <v>60</v>
-      </c>
-      <c r="E58" s="17"/>
-      <c r="F58" s="15">
-        <v>43208</v>
-      </c>
-      <c r="G58" s="15">
-        <v>43215</v>
-      </c>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
       <c r="H58" s="15"/>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -2746,18 +2786,13 @@
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B59" s="25">
-        <v>55</v>
-      </c>
-      <c r="D59" t="s">
-        <v>60</v>
-      </c>
-      <c r="E59" s="17"/>
-      <c r="F59" s="15">
-        <v>43208</v>
-      </c>
-      <c r="G59" s="15">
-        <v>43215</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
       <c r="H59" s="15"/>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -2765,7 +2800,7 @@
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B60" s="25">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D60" t="s">
         <v>60</v>
@@ -2783,8 +2818,19 @@
       <c r="O60" s="2"/>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
+      <c r="B61" s="25">
+        <v>54</v>
+      </c>
+      <c r="D61" t="s">
+        <v>60</v>
+      </c>
+      <c r="E61" s="17"/>
+      <c r="F61" s="15">
+        <v>43208</v>
+      </c>
+      <c r="G61" s="15">
+        <v>43215</v>
+      </c>
       <c r="H61" s="15"/>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -2792,13 +2838,18 @@
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B62" s="25">
-        <v>57</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
+        <v>55</v>
+      </c>
+      <c r="D62" t="s">
+        <v>60</v>
+      </c>
+      <c r="E62" s="17"/>
+      <c r="F62" s="15">
+        <v>43208</v>
+      </c>
+      <c r="G62" s="15">
+        <v>43215</v>
+      </c>
       <c r="H62" s="15"/>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -2806,122 +2857,111 @@
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B63" s="25">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D63" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E63" s="17"/>
       <c r="F63" s="15">
+        <v>43208</v>
+      </c>
+      <c r="G63" s="15">
         <v>43215</v>
       </c>
-      <c r="G63" s="15">
-        <v>43222</v>
-      </c>
-      <c r="H63" s="15" t="s">
-        <v>67</v>
-      </c>
+      <c r="H63" s="15"/>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B64" s="25">
-        <v>59</v>
-      </c>
-      <c r="D64" t="s">
-        <v>63</v>
-      </c>
-      <c r="E64" s="17"/>
-      <c r="F64" s="15">
-        <v>43215</v>
-      </c>
-      <c r="G64" s="15">
-        <v>43222</v>
-      </c>
-      <c r="H64" s="15" t="s">
-        <v>66</v>
-      </c>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B65" s="25">
-        <v>60</v>
-      </c>
-      <c r="D65" t="s">
-        <v>64</v>
-      </c>
-      <c r="E65" s="17"/>
-      <c r="F65" s="15">
-        <v>43215</v>
-      </c>
-      <c r="G65" s="15">
-        <v>43222</v>
-      </c>
-      <c r="H65" s="15" t="s">
-        <v>65</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
+      <c r="B66" s="25">
+        <v>58</v>
+      </c>
+      <c r="D66" t="s">
+        <v>62</v>
+      </c>
+      <c r="E66" s="17"/>
+      <c r="F66" s="15">
+        <v>43215</v>
+      </c>
+      <c r="G66" s="15">
+        <v>43222</v>
+      </c>
+      <c r="H66" s="15" t="s">
+        <v>67</v>
+      </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B67" s="25">
-        <v>61</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
+        <v>59</v>
+      </c>
+      <c r="D67" t="s">
+        <v>63</v>
+      </c>
+      <c r="E67" s="17"/>
+      <c r="F67" s="15">
+        <v>43215</v>
+      </c>
+      <c r="G67" s="15">
+        <v>43222</v>
+      </c>
+      <c r="H67" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B68" s="25">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D68" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E68" s="17"/>
       <c r="F68" s="15">
+        <v>43215</v>
+      </c>
+      <c r="G68" s="15">
         <v>43222</v>
       </c>
-      <c r="G68" s="15">
-        <v>43229</v>
-      </c>
-      <c r="H68" s="15"/>
+      <c r="H68" s="15" t="s">
+        <v>65</v>
+      </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B69" s="25">
-        <v>63</v>
-      </c>
-      <c r="D69" t="s">
-        <v>70</v>
-      </c>
-      <c r="E69" s="17"/>
-      <c r="F69" s="15">
-        <v>43222</v>
-      </c>
-      <c r="G69" s="15">
-        <v>43229</v>
-      </c>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
       <c r="H69" s="15"/>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -2929,26 +2969,32 @@
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B70" s="25">
-        <v>64</v>
-      </c>
-      <c r="D70" t="s">
-        <v>71</v>
-      </c>
-      <c r="E70" s="17"/>
-      <c r="F70" s="15">
-        <v>43222</v>
-      </c>
-      <c r="G70" s="15">
-        <v>43229</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
       <c r="H70" s="15"/>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
+      <c r="B71" s="25">
+        <v>62</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="17"/>
+      <c r="F71" s="15">
+        <v>43222</v>
+      </c>
+      <c r="G71" s="15">
+        <v>43229</v>
+      </c>
       <c r="H71" s="15"/>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -2956,13 +3002,18 @@
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B72" s="25">
-        <v>65</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
+        <v>63</v>
+      </c>
+      <c r="D72" t="s">
+        <v>70</v>
+      </c>
+      <c r="E72" s="17"/>
+      <c r="F72" s="15">
+        <v>43222</v>
+      </c>
+      <c r="G72" s="15">
+        <v>43229</v>
+      </c>
       <c r="H72" s="15"/>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -2970,17 +3021,17 @@
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B73" s="25">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D73" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E73" s="17"/>
       <c r="F73" s="15">
+        <v>43222</v>
+      </c>
+      <c r="G73" s="15">
         <v>43229</v>
-      </c>
-      <c r="G73" s="15">
-        <v>43236</v>
       </c>
       <c r="H73" s="15"/>
       <c r="M73" s="2"/>
@@ -2988,19 +3039,8 @@
       <c r="O73" s="2"/>
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B74" s="25">
-        <v>67</v>
-      </c>
-      <c r="D74" t="s">
-        <v>70</v>
-      </c>
-      <c r="E74" s="17"/>
-      <c r="F74" s="15">
-        <v>43229</v>
-      </c>
-      <c r="G74" s="15">
-        <v>43236</v>
-      </c>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
       <c r="H74" s="15"/>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -3008,55 +3048,102 @@
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B75" s="25">
-        <v>68</v>
-      </c>
-      <c r="D75" t="s">
-        <v>71</v>
-      </c>
-      <c r="E75" s="17"/>
-      <c r="F75" s="15">
-        <v>43229</v>
-      </c>
-      <c r="G75" s="15">
-        <v>43236</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
       <c r="H75" s="15"/>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
     </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B76" s="25">
+        <v>66</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="17"/>
+      <c r="F76" s="15">
+        <v>43229</v>
+      </c>
+      <c r="G76" s="15">
+        <v>43236</v>
+      </c>
+      <c r="H76" s="15"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B77" s="25">
+        <v>67</v>
+      </c>
+      <c r="D77" t="s">
+        <v>70</v>
+      </c>
+      <c r="E77" s="17"/>
+      <c r="F77" s="15">
+        <v>43229</v>
+      </c>
+      <c r="G77" s="15">
+        <v>43236</v>
+      </c>
+      <c r="H77" s="15"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+    </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C78" s="3" t="s">
+      <c r="B78" s="25">
+        <v>68</v>
+      </c>
+      <c r="D78" t="s">
+        <v>71</v>
+      </c>
+      <c r="E78" s="17"/>
+      <c r="F78" s="15">
+        <v>43229</v>
+      </c>
+      <c r="G78" s="15">
+        <v>43236</v>
+      </c>
+      <c r="H78" s="15"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C81" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C79" t="s">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
         <v>83</v>
       </c>
-      <c r="D79" s="45" t="s">
+      <c r="D82" s="45" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C80" t="s">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
         <v>95</v>
       </c>
-      <c r="D80" s="45" t="s">
+      <c r="D83" s="45" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C81" t="s">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
         <v>97</v>
       </c>
-      <c r="D81" s="45" t="s">
+      <c r="D84" s="45" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D83" t="s">
-        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -3071,78 +3158,65 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B6:D6"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="M11" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="M12" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="M13" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="M18" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="M19" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="M20" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="M21" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="M17" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="D79" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="M24" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="M26" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="M27" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="M28" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="M25" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="D80" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="N27" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="D81" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="M31" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="M32" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="M33" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="M34" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="M38" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="M39" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="M40" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="M41" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="M42" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="M37" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="M10" r:id="rId1"/>
+    <hyperlink ref="M11" r:id="rId2"/>
+    <hyperlink ref="M12" r:id="rId3"/>
+    <hyperlink ref="M13" r:id="rId4"/>
+    <hyperlink ref="M18" r:id="rId5"/>
+    <hyperlink ref="M19" r:id="rId6"/>
+    <hyperlink ref="M20" r:id="rId7"/>
+    <hyperlink ref="M21" r:id="rId8"/>
+    <hyperlink ref="M17" r:id="rId9"/>
+    <hyperlink ref="D82" r:id="rId10"/>
+    <hyperlink ref="M24" r:id="rId11"/>
+    <hyperlink ref="M26" r:id="rId12"/>
+    <hyperlink ref="M27" r:id="rId13"/>
+    <hyperlink ref="M28" r:id="rId14"/>
+    <hyperlink ref="M25" r:id="rId15"/>
+    <hyperlink ref="D83" r:id="rId16"/>
+    <hyperlink ref="N27" r:id="rId17"/>
+    <hyperlink ref="D84" r:id="rId18"/>
+    <hyperlink ref="M31" r:id="rId19"/>
+    <hyperlink ref="M32" r:id="rId20"/>
+    <hyperlink ref="M33" r:id="rId21"/>
+    <hyperlink ref="M34" r:id="rId22"/>
+    <hyperlink ref="M37" r:id="rId23"/>
+    <hyperlink ref="M38" r:id="rId24"/>
+    <hyperlink ref="M39" r:id="rId25"/>
+    <hyperlink ref="M40" r:id="rId26"/>
+    <hyperlink ref="M41" r:id="rId27"/>
+    <hyperlink ref="M42" r:id="rId28"/>
+    <hyperlink ref="M56" r:id="rId29"/>
+    <hyperlink ref="M55" r:id="rId30"/>
+    <hyperlink ref="O17" r:id="rId31"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId29"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId32"/>
+  <legacyDrawing r:id="rId33"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>